--- a/test/FQ.xlsx
+++ b/test/FQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26520" tabRatio="443"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26500" tabRatio="443"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7500" uniqueCount="2415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7510" uniqueCount="2425">
   <si>
     <t>type</t>
   </si>
@@ -7911,12 +7911,42 @@
   <si>
     <t>myVideo.avi</t>
   </si>
+  <si>
+    <t>ppp_inclusion_level</t>
+  </si>
+  <si>
+    <t>ppp_input::Ateso</t>
+  </si>
+  <si>
+    <t>ppp_input::Luganda</t>
+  </si>
+  <si>
+    <t>ppp_input::Lugbara</t>
+  </si>
+  <si>
+    <t>ppp_input::Luo</t>
+  </si>
+  <si>
+    <t>ppp_input::Lusoga</t>
+  </si>
+  <si>
+    <t>ppp_input::Ngakarimojong</t>
+  </si>
+  <si>
+    <t>ppp_input::Runyankole-Rukiga</t>
+  </si>
+  <si>
+    <t>ppp_input::Runyoro-Rutoro</t>
+  </si>
+  <si>
+    <t>ppp_input::English</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8050,6 +8080,18 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -8110,7 +8152,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1081">
+  <cellStyleXfs count="1083">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9196,8 +9238,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9390,8 +9434,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1081">
+  <cellStyles count="1083">
     <cellStyle name="20% - Accent6" xfId="816" builtinId="50"/>
     <cellStyle name="Excel Built-in Normal" xfId="228"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -9932,6 +9988,7 @@
     <cellStyle name="Followed Hyperlink" xfId="1076" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1078" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1082" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -10470,6 +10527,7 @@
     <cellStyle name="Hyperlink" xfId="1075" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1077" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1081" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="37"/>
     <cellStyle name="Normal 5" xfId="231"/>
@@ -10793,13 +10851,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IY373"/>
+  <dimension ref="A1:IX373"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AV164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW190" sqref="AW190"/>
+      <selection pane="bottomRight" activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -10830,10 +10888,12 @@
     <col min="48" max="48" width="15.6640625" style="17" customWidth="1"/>
     <col min="49" max="49" width="8.6640625" style="17"/>
     <col min="50" max="50" width="16.83203125" style="17" customWidth="1"/>
-    <col min="51" max="16384" width="8.6640625" style="17"/>
+    <col min="51" max="51" width="3.6640625" style="17" customWidth="1"/>
+    <col min="52" max="52" width="16.1640625" style="17" customWidth="1"/>
+    <col min="53" max="16384" width="8.6640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="13" customHeight="1">
+    <row r="1" spans="1:61" ht="13" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -10981,8 +11041,38 @@
       <c r="AX1" s="66" t="s">
         <v>2412</v>
       </c>
-    </row>
-    <row r="2" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ1" s="67" t="s">
+        <v>2415</v>
+      </c>
+      <c r="BA1" s="67" t="s">
+        <v>2424</v>
+      </c>
+      <c r="BB1" s="40" t="s">
+        <v>2416</v>
+      </c>
+      <c r="BC1" s="40" t="s">
+        <v>2417</v>
+      </c>
+      <c r="BD1" s="40" t="s">
+        <v>2418</v>
+      </c>
+      <c r="BE1" s="40" t="s">
+        <v>2419</v>
+      </c>
+      <c r="BF1" s="40" t="s">
+        <v>2420</v>
+      </c>
+      <c r="BG1" s="40" t="s">
+        <v>2421</v>
+      </c>
+      <c r="BH1" s="40" t="s">
+        <v>2422</v>
+      </c>
+      <c r="BI1" s="40" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:61" ht="13" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>14</v>
       </c>
@@ -11020,8 +11110,10 @@
       <c r="AT2" s="16"/>
       <c r="AU2" s="16"/>
       <c r="AV2" s="16"/>
-    </row>
-    <row r="3" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ2" s="67"/>
+      <c r="BA2" s="67"/>
+    </row>
+    <row r="3" spans="1:61" ht="13" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>16</v>
       </c>
@@ -11061,8 +11153,10 @@
       <c r="AT3" s="16"/>
       <c r="AU3" s="16"/>
       <c r="AV3" s="16"/>
-    </row>
-    <row r="4" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+    </row>
+    <row r="4" spans="1:61" ht="13" customHeight="1">
       <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
@@ -11124,8 +11218,10 @@
       <c r="AT4" s="16"/>
       <c r="AU4" s="16"/>
       <c r="AV4" s="16"/>
-    </row>
-    <row r="5" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ4" s="67"/>
+      <c r="BA4" s="67"/>
+    </row>
+    <row r="5" spans="1:61" ht="13" customHeight="1">
       <c r="A5" s="40" t="s">
         <v>23</v>
       </c>
@@ -11189,8 +11285,10 @@
       <c r="AT5" s="16"/>
       <c r="AU5" s="16"/>
       <c r="AV5" s="16"/>
-    </row>
-    <row r="6" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ5" s="67"/>
+      <c r="BA5" s="67"/>
+    </row>
+    <row r="6" spans="1:61" ht="13" customHeight="1">
       <c r="A6" s="40" t="s">
         <v>27</v>
       </c>
@@ -11226,8 +11324,10 @@
       <c r="AT6" s="16"/>
       <c r="AU6" s="16"/>
       <c r="AV6" s="16"/>
-    </row>
-    <row r="7" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ6" s="67"/>
+      <c r="BA6" s="67"/>
+    </row>
+    <row r="7" spans="1:61" ht="13" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>28</v>
       </c>
@@ -11293,8 +11393,10 @@
       <c r="AT7" s="16"/>
       <c r="AU7" s="16"/>
       <c r="AV7" s="16"/>
-    </row>
-    <row r="8" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="67"/>
+    </row>
+    <row r="8" spans="1:61" ht="13" customHeight="1">
       <c r="A8" s="40" t="s">
         <v>32</v>
       </c>
@@ -11362,8 +11464,10 @@
       <c r="AT8" s="16"/>
       <c r="AU8" s="16"/>
       <c r="AV8" s="16"/>
-    </row>
-    <row r="9" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+    </row>
+    <row r="9" spans="1:61" ht="13" customHeight="1">
       <c r="A9" s="40" t="s">
         <v>37</v>
       </c>
@@ -11431,8 +11535,10 @@
       <c r="AT9" s="16"/>
       <c r="AU9" s="16"/>
       <c r="AV9" s="16"/>
-    </row>
-    <row r="10" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ9" s="67"/>
+      <c r="BA9" s="67"/>
+    </row>
+    <row r="10" spans="1:61" ht="13" customHeight="1">
       <c r="A10" s="40" t="s">
         <v>16</v>
       </c>
@@ -11472,8 +11578,10 @@
       <c r="AT10" s="16"/>
       <c r="AU10" s="16"/>
       <c r="AV10" s="16"/>
-    </row>
-    <row r="11" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ10" s="31"/>
+      <c r="BA10" s="31"/>
+    </row>
+    <row r="11" spans="1:61" ht="13" customHeight="1">
       <c r="A11" s="40" t="s">
         <v>37</v>
       </c>
@@ -11538,8 +11646,10 @@
       <c r="AT11" s="16"/>
       <c r="AU11" s="16"/>
       <c r="AV11" s="16"/>
-    </row>
-    <row r="12" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ11" s="67"/>
+      <c r="BA11" s="67"/>
+    </row>
+    <row r="12" spans="1:61" ht="13" customHeight="1">
       <c r="A12" s="40" t="s">
         <v>37</v>
       </c>
@@ -11604,8 +11714,10 @@
       <c r="AT12" s="16"/>
       <c r="AU12" s="16"/>
       <c r="AV12" s="16"/>
-    </row>
-    <row r="13" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ12" s="67"/>
+      <c r="BA12" s="67"/>
+    </row>
+    <row r="13" spans="1:61" ht="13" customHeight="1">
       <c r="A13" s="40" t="s">
         <v>37</v>
       </c>
@@ -11670,8 +11782,10 @@
       <c r="AT13" s="16"/>
       <c r="AU13" s="16"/>
       <c r="AV13" s="16"/>
-    </row>
-    <row r="14" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ13" s="67"/>
+      <c r="BA13" s="67"/>
+    </row>
+    <row r="14" spans="1:61" ht="13" customHeight="1">
       <c r="A14" s="40" t="s">
         <v>37</v>
       </c>
@@ -11736,8 +11850,10 @@
       <c r="AT14" s="16"/>
       <c r="AU14" s="16"/>
       <c r="AV14" s="16"/>
-    </row>
-    <row r="15" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ14" s="67"/>
+      <c r="BA14" s="67"/>
+    </row>
+    <row r="15" spans="1:61" ht="13" customHeight="1">
       <c r="A15" s="40" t="s">
         <v>45</v>
       </c>
@@ -11803,8 +11919,10 @@
       <c r="AT15" s="16"/>
       <c r="AU15" s="16"/>
       <c r="AV15" s="16"/>
-    </row>
-    <row r="16" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ15" s="67"/>
+      <c r="BA15" s="67"/>
+    </row>
+    <row r="16" spans="1:61" ht="13" customHeight="1">
       <c r="A16" s="40" t="s">
         <v>45</v>
       </c>
@@ -11870,8 +11988,10 @@
       <c r="AT16" s="16"/>
       <c r="AU16" s="16"/>
       <c r="AV16" s="16"/>
-    </row>
-    <row r="17" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ16" s="67"/>
+      <c r="BA16" s="67"/>
+    </row>
+    <row r="17" spans="1:258" ht="13" customHeight="1">
       <c r="A17" s="40" t="s">
         <v>27</v>
       </c>
@@ -11907,8 +12027,10 @@
       <c r="AT17" s="16"/>
       <c r="AU17" s="16"/>
       <c r="AV17" s="16"/>
-    </row>
-    <row r="18" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ17" s="67"/>
+      <c r="BA17" s="67"/>
+    </row>
+    <row r="18" spans="1:258" ht="13" customHeight="1">
       <c r="A18" s="40" t="s">
         <v>14</v>
       </c>
@@ -11947,8 +12069,10 @@
       <c r="AT18" s="16"/>
       <c r="AU18" s="16"/>
       <c r="AV18" s="16"/>
-    </row>
-    <row r="19" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ18" s="67"/>
+      <c r="BA18" s="67"/>
+    </row>
+    <row r="19" spans="1:258" ht="13" customHeight="1">
       <c r="A19" s="40" t="s">
         <v>16</v>
       </c>
@@ -11986,8 +12110,10 @@
       <c r="AT19" s="16"/>
       <c r="AU19" s="16"/>
       <c r="AV19" s="16"/>
-    </row>
-    <row r="20" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ19" s="67"/>
+      <c r="BA19" s="67"/>
+    </row>
+    <row r="20" spans="1:258" ht="13" customHeight="1">
       <c r="A20" s="40" t="s">
         <v>28</v>
       </c>
@@ -12071,8 +12197,10 @@
       <c r="AT20" s="16"/>
       <c r="AU20" s="16"/>
       <c r="AV20" s="16"/>
-    </row>
-    <row r="21" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ20" s="67"/>
+      <c r="BA20" s="67"/>
+    </row>
+    <row r="21" spans="1:258" ht="13" customHeight="1">
       <c r="A21" s="40" t="s">
         <v>20</v>
       </c>
@@ -12136,8 +12264,10 @@
       <c r="AT21" s="16"/>
       <c r="AU21" s="16"/>
       <c r="AV21" s="16"/>
-    </row>
-    <row r="22" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ21" s="67"/>
+      <c r="BA21" s="67"/>
+    </row>
+    <row r="22" spans="1:258" ht="13" customHeight="1">
       <c r="A22" s="40" t="s">
         <v>20</v>
       </c>
@@ -12201,8 +12331,10 @@
       <c r="AT22" s="16"/>
       <c r="AU22" s="16"/>
       <c r="AV22" s="16"/>
-    </row>
-    <row r="23" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ22" s="67"/>
+      <c r="BA22" s="67"/>
+    </row>
+    <row r="23" spans="1:258" ht="13" customHeight="1">
       <c r="A23" s="40" t="s">
         <v>32</v>
       </c>
@@ -12266,8 +12398,10 @@
       <c r="AT23" s="16"/>
       <c r="AU23" s="16"/>
       <c r="AV23" s="16"/>
-    </row>
-    <row r="24" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ23" s="67"/>
+      <c r="BA23" s="67"/>
+    </row>
+    <row r="24" spans="1:258" ht="13" customHeight="1">
       <c r="A24" s="40" t="s">
         <v>27</v>
       </c>
@@ -12303,8 +12437,10 @@
       <c r="AT24" s="16"/>
       <c r="AU24" s="16"/>
       <c r="AV24" s="16"/>
-    </row>
-    <row r="25" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ24" s="67"/>
+      <c r="BA24" s="67"/>
+    </row>
+    <row r="25" spans="1:258" ht="13" customHeight="1">
       <c r="A25" s="40" t="s">
         <v>16</v>
       </c>
@@ -12342,8 +12478,10 @@
       <c r="AT25" s="16"/>
       <c r="AU25" s="16"/>
       <c r="AV25" s="16"/>
-    </row>
-    <row r="26" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="67"/>
+    </row>
+    <row r="26" spans="1:258" ht="13" customHeight="1">
       <c r="A26" s="40" t="s">
         <v>37</v>
       </c>
@@ -12409,8 +12547,10 @@
       <c r="AT26" s="16"/>
       <c r="AU26" s="16"/>
       <c r="AV26" s="16"/>
-    </row>
-    <row r="27" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ26" s="67"/>
+      <c r="BA26" s="67"/>
+    </row>
+    <row r="27" spans="1:258" ht="13" customHeight="1">
       <c r="A27" s="40" t="s">
         <v>28</v>
       </c>
@@ -12476,8 +12616,10 @@
       <c r="AT27" s="16"/>
       <c r="AU27" s="16"/>
       <c r="AV27" s="16"/>
-    </row>
-    <row r="28" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ27" s="67"/>
+      <c r="BA27" s="67"/>
+    </row>
+    <row r="28" spans="1:258" ht="13" customHeight="1">
       <c r="A28" s="40" t="s">
         <v>27</v>
       </c>
@@ -12513,8 +12655,10 @@
       <c r="AT28" s="16"/>
       <c r="AU28" s="16"/>
       <c r="AV28" s="16"/>
-    </row>
-    <row r="29" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ28" s="67"/>
+      <c r="BA28" s="67"/>
+    </row>
+    <row r="29" spans="1:258" ht="13" customHeight="1">
       <c r="A29" s="40" t="s">
         <v>37</v>
       </c>
@@ -12606,8 +12750,10 @@
       <c r="AT29" s="16"/>
       <c r="AU29" s="16"/>
       <c r="AV29" s="16"/>
-    </row>
-    <row r="30" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ29" s="67"/>
+      <c r="BA29" s="67"/>
+    </row>
+    <row r="30" spans="1:258" ht="13" customHeight="1">
       <c r="A30" s="40" t="s">
         <v>16</v>
       </c>
@@ -12651,8 +12797,8 @@
       <c r="AW30" s="35"/>
       <c r="AX30" s="35"/>
       <c r="AY30" s="35"/>
-      <c r="AZ30" s="35"/>
-      <c r="BA30" s="35"/>
+      <c r="AZ30" s="67"/>
+      <c r="BA30" s="67"/>
       <c r="BB30" s="35"/>
       <c r="BC30" s="35"/>
       <c r="BD30" s="35"/>
@@ -12858,9 +13004,8 @@
       <c r="IV30" s="35"/>
       <c r="IW30" s="35"/>
       <c r="IX30" s="35"/>
-      <c r="IY30" s="35"/>
-    </row>
-    <row r="31" spans="1:259" ht="13" customHeight="1">
+    </row>
+    <row r="31" spans="1:258" ht="13" customHeight="1">
       <c r="A31" s="40" t="s">
         <v>71</v>
       </c>
@@ -12930,8 +13075,8 @@
       <c r="AW31" s="35"/>
       <c r="AX31" s="35"/>
       <c r="AY31" s="35"/>
-      <c r="AZ31" s="35"/>
-      <c r="BA31" s="35"/>
+      <c r="AZ31" s="67"/>
+      <c r="BA31" s="67"/>
       <c r="BB31" s="35"/>
       <c r="BC31" s="35"/>
       <c r="BD31" s="35"/>
@@ -13137,9 +13282,8 @@
       <c r="IV31" s="35"/>
       <c r="IW31" s="35"/>
       <c r="IX31" s="35"/>
-      <c r="IY31" s="35"/>
-    </row>
-    <row r="32" spans="1:259" ht="13" customHeight="1">
+    </row>
+    <row r="32" spans="1:258" ht="13" customHeight="1">
       <c r="A32" s="40" t="s">
         <v>28</v>
       </c>
@@ -13207,8 +13351,8 @@
       <c r="AW32" s="35"/>
       <c r="AX32" s="35"/>
       <c r="AY32" s="35"/>
-      <c r="AZ32" s="35"/>
-      <c r="BA32" s="35"/>
+      <c r="AZ32" s="67"/>
+      <c r="BA32" s="67"/>
       <c r="BB32" s="35"/>
       <c r="BC32" s="35"/>
       <c r="BD32" s="35"/>
@@ -13414,9 +13558,8 @@
       <c r="IV32" s="35"/>
       <c r="IW32" s="35"/>
       <c r="IX32" s="35"/>
-      <c r="IY32" s="35"/>
-    </row>
-    <row r="33" spans="1:259" ht="13" customHeight="1">
+    </row>
+    <row r="33" spans="1:258" ht="13" customHeight="1">
       <c r="A33" s="40" t="s">
         <v>27</v>
       </c>
@@ -13456,8 +13599,8 @@
       <c r="AW33" s="35"/>
       <c r="AX33" s="35"/>
       <c r="AY33" s="35"/>
-      <c r="AZ33" s="35"/>
-      <c r="BA33" s="35"/>
+      <c r="AZ33" s="67"/>
+      <c r="BA33" s="67"/>
       <c r="BB33" s="35"/>
       <c r="BC33" s="35"/>
       <c r="BD33" s="35"/>
@@ -13663,9 +13806,8 @@
       <c r="IV33" s="35"/>
       <c r="IW33" s="35"/>
       <c r="IX33" s="35"/>
-      <c r="IY33" s="35"/>
-    </row>
-    <row r="34" spans="1:259" ht="13" customHeight="1">
+    </row>
+    <row r="34" spans="1:258" ht="13" customHeight="1">
       <c r="A34" s="40" t="s">
         <v>71</v>
       </c>
@@ -13757,8 +13899,8 @@
       <c r="AW34" s="35"/>
       <c r="AX34" s="35"/>
       <c r="AY34" s="35"/>
-      <c r="AZ34" s="35"/>
-      <c r="BA34" s="35"/>
+      <c r="AZ34" s="67"/>
+      <c r="BA34" s="67"/>
       <c r="BB34" s="35"/>
       <c r="BC34" s="35"/>
       <c r="BD34" s="35"/>
@@ -13964,9 +14106,8 @@
       <c r="IV34" s="35"/>
       <c r="IW34" s="35"/>
       <c r="IX34" s="35"/>
-      <c r="IY34" s="35"/>
-    </row>
-    <row r="35" spans="1:259" ht="13" customHeight="1">
+    </row>
+    <row r="35" spans="1:258" ht="13" customHeight="1">
       <c r="A35" s="40" t="s">
         <v>14</v>
       </c>
@@ -14004,8 +14145,10 @@
       <c r="AT35" s="16"/>
       <c r="AU35" s="16"/>
       <c r="AV35" s="16"/>
-    </row>
-    <row r="36" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ35" s="31"/>
+      <c r="BA35" s="31"/>
+    </row>
+    <row r="36" spans="1:258" ht="13" customHeight="1">
       <c r="A36" s="40" t="s">
         <v>16</v>
       </c>
@@ -14043,8 +14186,10 @@
       <c r="AT36" s="16"/>
       <c r="AU36" s="16"/>
       <c r="AV36" s="16"/>
-    </row>
-    <row r="37" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ36" s="67"/>
+      <c r="BA36" s="67"/>
+    </row>
+    <row r="37" spans="1:258" ht="13" customHeight="1">
       <c r="A37" s="40" t="s">
         <v>20</v>
       </c>
@@ -14109,8 +14254,10 @@
       <c r="AT37" s="16"/>
       <c r="AU37" s="16"/>
       <c r="AV37" s="16"/>
-    </row>
-    <row r="38" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ37" s="31"/>
+      <c r="BA37" s="31"/>
+    </row>
+    <row r="38" spans="1:258" ht="13" customHeight="1">
       <c r="A38" s="40" t="s">
         <v>20</v>
       </c>
@@ -14175,8 +14322,10 @@
       <c r="AT38" s="16"/>
       <c r="AU38" s="16"/>
       <c r="AV38" s="16"/>
-    </row>
-    <row r="39" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ38" s="31"/>
+      <c r="BA38" s="31"/>
+    </row>
+    <row r="39" spans="1:258" ht="13" customHeight="1">
       <c r="A39" s="40" t="s">
         <v>37</v>
       </c>
@@ -14241,8 +14390,10 @@
       <c r="AT39" s="16"/>
       <c r="AU39" s="16"/>
       <c r="AV39" s="16"/>
-    </row>
-    <row r="40" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ39" s="31"/>
+      <c r="BA39" s="31"/>
+    </row>
+    <row r="40" spans="1:258" ht="13" customHeight="1">
       <c r="A40" s="40" t="s">
         <v>37</v>
       </c>
@@ -14307,8 +14458,10 @@
       <c r="AT40" s="16"/>
       <c r="AU40" s="16"/>
       <c r="AV40" s="16"/>
-    </row>
-    <row r="41" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ40" s="31"/>
+      <c r="BA40" s="31"/>
+    </row>
+    <row r="41" spans="1:258" ht="13" customHeight="1">
       <c r="A41" s="40" t="s">
         <v>37</v>
       </c>
@@ -14373,8 +14526,10 @@
       <c r="AT41" s="16"/>
       <c r="AU41" s="16"/>
       <c r="AV41" s="16"/>
-    </row>
-    <row r="42" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ41" s="31"/>
+      <c r="BA41" s="31"/>
+    </row>
+    <row r="42" spans="1:258" ht="13" customHeight="1">
       <c r="A42" s="40" t="s">
         <v>37</v>
       </c>
@@ -14439,8 +14594,10 @@
       <c r="AT42" s="16"/>
       <c r="AU42" s="16"/>
       <c r="AV42" s="16"/>
-    </row>
-    <row r="43" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ42" s="34"/>
+      <c r="BA42" s="68"/>
+    </row>
+    <row r="43" spans="1:258" ht="13" customHeight="1">
       <c r="A43" s="40" t="s">
         <v>45</v>
       </c>
@@ -14505,8 +14662,10 @@
       <c r="AT43" s="16"/>
       <c r="AU43" s="16"/>
       <c r="AV43" s="16"/>
-    </row>
-    <row r="44" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ43" s="67"/>
+      <c r="BA43" s="67"/>
+    </row>
+    <row r="44" spans="1:258" ht="13" customHeight="1">
       <c r="A44" s="40" t="s">
         <v>45</v>
       </c>
@@ -14571,8 +14730,10 @@
       <c r="AT44" s="16"/>
       <c r="AU44" s="16"/>
       <c r="AV44" s="16"/>
-    </row>
-    <row r="45" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ44" s="67"/>
+      <c r="BA44" s="67"/>
+    </row>
+    <row r="45" spans="1:258" ht="13" customHeight="1">
       <c r="A45" s="40" t="s">
         <v>28</v>
       </c>
@@ -14656,8 +14817,10 @@
       <c r="AT45" s="16"/>
       <c r="AU45" s="16"/>
       <c r="AV45" s="16"/>
-    </row>
-    <row r="46" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ45" s="31"/>
+      <c r="BA45" s="31"/>
+    </row>
+    <row r="46" spans="1:258" ht="13" customHeight="1">
       <c r="A46" s="40" t="s">
         <v>27</v>
       </c>
@@ -14693,8 +14856,10 @@
       <c r="AT46" s="16"/>
       <c r="AU46" s="16"/>
       <c r="AV46" s="16"/>
-    </row>
-    <row r="47" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ46" s="67"/>
+      <c r="BA46" s="67"/>
+    </row>
+    <row r="47" spans="1:258" ht="13" customHeight="1">
       <c r="A47" s="40" t="s">
         <v>28</v>
       </c>
@@ -14806,8 +14971,10 @@
       <c r="AT47" s="16"/>
       <c r="AU47" s="16"/>
       <c r="AV47" s="16"/>
-    </row>
-    <row r="48" spans="1:259" ht="13" customHeight="1">
+      <c r="AZ47" s="31"/>
+      <c r="BA47" s="31"/>
+    </row>
+    <row r="48" spans="1:258" ht="13" customHeight="1">
       <c r="A48" s="40" t="s">
         <v>28</v>
       </c>
@@ -14871,8 +15038,10 @@
       <c r="AT48" s="16"/>
       <c r="AU48" s="16"/>
       <c r="AV48" s="16"/>
-    </row>
-    <row r="49" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ48" s="31"/>
+      <c r="BA48" s="31"/>
+    </row>
+    <row r="49" spans="1:53" ht="13" customHeight="1">
       <c r="A49" s="40" t="s">
         <v>93</v>
       </c>
@@ -14938,8 +15107,10 @@
       <c r="AT49" s="16"/>
       <c r="AU49" s="16"/>
       <c r="AV49" s="16"/>
-    </row>
-    <row r="50" spans="1:48" s="22" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ49" s="31"/>
+      <c r="BA49" s="31"/>
+    </row>
+    <row r="50" spans="1:53" s="22" customFormat="1" ht="13" customHeight="1">
       <c r="A50" s="40" t="s">
         <v>165</v>
       </c>
@@ -14987,8 +15158,10 @@
       <c r="AD50" s="40"/>
       <c r="AE50" s="40"/>
       <c r="AF50" s="40"/>
-    </row>
-    <row r="51" spans="1:48" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ50" s="31"/>
+      <c r="BA50" s="31"/>
+    </row>
+    <row r="51" spans="1:53" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A51" s="40" t="s">
         <v>20</v>
       </c>
@@ -15055,8 +15228,10 @@
       <c r="AF51" s="36" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="52" spans="1:48" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ51" s="31"/>
+      <c r="BA51" s="31"/>
+    </row>
+    <row r="52" spans="1:53" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A52" s="40" t="s">
         <v>20</v>
       </c>
@@ -15104,8 +15279,10 @@
       <c r="AD52" s="40"/>
       <c r="AE52" s="40"/>
       <c r="AF52" s="40"/>
-    </row>
-    <row r="53" spans="1:48" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ52" s="34"/>
+      <c r="BA52" s="68"/>
+    </row>
+    <row r="53" spans="1:53" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A53" s="40" t="s">
         <v>28</v>
       </c>
@@ -15153,8 +15330,10 @@
       <c r="AD53" s="40"/>
       <c r="AE53" s="40"/>
       <c r="AF53" s="40"/>
-    </row>
-    <row r="54" spans="1:48" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ53" s="67"/>
+      <c r="BA53" s="67"/>
+    </row>
+    <row r="54" spans="1:53" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A54" s="40" t="s">
         <v>14</v>
       </c>
@@ -15181,8 +15360,10 @@
       <c r="AD54" s="40"/>
       <c r="AE54" s="40"/>
       <c r="AF54" s="40"/>
-    </row>
-    <row r="55" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ54" s="67"/>
+      <c r="BA54" s="67"/>
+    </row>
+    <row r="55" spans="1:53" ht="13" customHeight="1">
       <c r="A55" s="40" t="s">
         <v>101</v>
       </c>
@@ -15274,8 +15455,10 @@
       <c r="AT55" s="16"/>
       <c r="AU55" s="16"/>
       <c r="AV55" s="16"/>
-    </row>
-    <row r="56" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ55" s="67"/>
+      <c r="BA55" s="67"/>
+    </row>
+    <row r="56" spans="1:53" ht="13" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>37</v>
       </c>
@@ -15387,8 +15570,10 @@
       <c r="AT56" s="16"/>
       <c r="AU56" s="16"/>
       <c r="AV56" s="16"/>
-    </row>
-    <row r="57" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ56" s="69"/>
+      <c r="BA56" s="69"/>
+    </row>
+    <row r="57" spans="1:53" ht="13" customHeight="1">
       <c r="A57" s="40" t="s">
         <v>37</v>
       </c>
@@ -15478,8 +15663,10 @@
       <c r="AT57" s="16"/>
       <c r="AU57" s="16"/>
       <c r="AV57" s="16"/>
-    </row>
-    <row r="58" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ57" s="69"/>
+      <c r="BA57" s="69"/>
+    </row>
+    <row r="58" spans="1:53" ht="13" customHeight="1">
       <c r="A58" s="40" t="s">
         <v>14</v>
       </c>
@@ -15517,8 +15704,10 @@
       <c r="AT58" s="16"/>
       <c r="AU58" s="16"/>
       <c r="AV58" s="16"/>
-    </row>
-    <row r="59" spans="1:48" s="49" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ58" s="69"/>
+      <c r="BA58" s="69"/>
+    </row>
+    <row r="59" spans="1:53" s="49" customFormat="1" ht="13" customHeight="1">
       <c r="A59" s="47" t="s">
         <v>20</v>
       </c>
@@ -15610,8 +15799,10 @@
       <c r="AT59" s="48"/>
       <c r="AU59" s="48"/>
       <c r="AV59" s="48"/>
-    </row>
-    <row r="60" spans="1:48" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ59" s="69"/>
+      <c r="BA59" s="69"/>
+    </row>
+    <row r="60" spans="1:53" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A60" s="53" t="s">
         <v>16</v>
       </c>
@@ -15624,8 +15815,10 @@
       <c r="J60" s="53" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="61" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ60" s="69"/>
+      <c r="BA60" s="69"/>
+    </row>
+    <row r="61" spans="1:53" ht="13" customHeight="1">
       <c r="A61" s="40" t="s">
         <v>20</v>
       </c>
@@ -15691,8 +15884,10 @@
       <c r="AT61" s="16"/>
       <c r="AU61" s="16"/>
       <c r="AV61" s="16"/>
-    </row>
-    <row r="62" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ61" s="69"/>
+      <c r="BA61" s="69"/>
+    </row>
+    <row r="62" spans="1:53" ht="13" customHeight="1">
       <c r="A62" s="40" t="s">
         <v>20</v>
       </c>
@@ -15758,8 +15953,10 @@
       <c r="AT62" s="16"/>
       <c r="AU62" s="16"/>
       <c r="AV62" s="16"/>
-    </row>
-    <row r="63" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ62" s="69"/>
+      <c r="BA62" s="69"/>
+    </row>
+    <row r="63" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A63" s="64" t="s">
         <v>2284</v>
       </c>
@@ -15789,8 +15986,10 @@
       <c r="AQ63" s="53"/>
       <c r="AR63" s="53"/>
       <c r="AS63" s="53"/>
-    </row>
-    <row r="64" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ63" s="69"/>
+      <c r="BA63" s="69"/>
+    </row>
+    <row r="64" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A64" s="53" t="s">
         <v>118</v>
       </c>
@@ -15826,8 +16025,10 @@
       <c r="AQ64" s="53"/>
       <c r="AR64" s="53"/>
       <c r="AS64" s="53"/>
-    </row>
-    <row r="65" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ64" s="69"/>
+      <c r="BA64" s="69"/>
+    </row>
+    <row r="65" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A65" s="53" t="s">
         <v>14</v>
       </c>
@@ -15853,16 +16054,20 @@
       <c r="AQ65" s="53"/>
       <c r="AR65" s="55"/>
       <c r="AS65" s="53"/>
-    </row>
-    <row r="66" spans="1:48" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ65" s="69"/>
+      <c r="BA65" s="69"/>
+    </row>
+    <row r="66" spans="1:53" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A66" s="53" t="s">
         <v>27</v>
       </c>
       <c r="B66" s="53" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="67" spans="1:48" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ66" s="69"/>
+      <c r="BA66" s="69"/>
+    </row>
+    <row r="67" spans="1:53" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A67" s="53" t="s">
         <v>14</v>
       </c>
@@ -15872,8 +16077,10 @@
       <c r="L67" s="53" t="s">
         <v>2400</v>
       </c>
-    </row>
-    <row r="68" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ67" s="69"/>
+      <c r="BA67" s="69"/>
+    </row>
+    <row r="68" spans="1:53" ht="13" customHeight="1">
       <c r="A68" s="40" t="s">
         <v>14</v>
       </c>
@@ -15911,8 +16118,10 @@
       <c r="AT68" s="16"/>
       <c r="AU68" s="16"/>
       <c r="AV68" s="16"/>
-    </row>
-    <row r="69" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ68" s="69"/>
+      <c r="BA68" s="69"/>
+    </row>
+    <row r="69" spans="1:53" ht="13" customHeight="1">
       <c r="A69" s="40" t="s">
         <v>14</v>
       </c>
@@ -15950,8 +16159,10 @@
       <c r="AT69" s="16"/>
       <c r="AU69" s="16"/>
       <c r="AV69" s="16"/>
-    </row>
-    <row r="70" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ69" s="69"/>
+      <c r="BA69" s="69"/>
+    </row>
+    <row r="70" spans="1:53" ht="13" customHeight="1">
       <c r="A70" s="40" t="s">
         <v>14</v>
       </c>
@@ -15989,8 +16200,10 @@
       <c r="AT70" s="16"/>
       <c r="AU70" s="16"/>
       <c r="AV70" s="16"/>
-    </row>
-    <row r="71" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ70" s="69"/>
+      <c r="BA70" s="69"/>
+    </row>
+    <row r="71" spans="1:53" ht="13" customHeight="1">
       <c r="A71" s="40" t="s">
         <v>14</v>
       </c>
@@ -16028,8 +16241,10 @@
       <c r="AT71" s="16"/>
       <c r="AU71" s="16"/>
       <c r="AV71" s="16"/>
-    </row>
-    <row r="72" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ71" s="69"/>
+      <c r="BA71" s="69"/>
+    </row>
+    <row r="72" spans="1:53" ht="13" customHeight="1">
       <c r="A72" s="40" t="s">
         <v>45</v>
       </c>
@@ -16115,8 +16330,10 @@
       <c r="AT72" s="16"/>
       <c r="AU72" s="16"/>
       <c r="AV72" s="16"/>
-    </row>
-    <row r="73" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ72" s="69"/>
+      <c r="BA72" s="69"/>
+    </row>
+    <row r="73" spans="1:53" ht="13" customHeight="1">
       <c r="A73" s="40" t="s">
         <v>16</v>
       </c>
@@ -16181,8 +16398,10 @@
       <c r="AT73" s="16"/>
       <c r="AU73" s="16"/>
       <c r="AV73" s="16"/>
-    </row>
-    <row r="74" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ73" s="69"/>
+      <c r="BA73" s="69"/>
+    </row>
+    <row r="74" spans="1:53" ht="13" customHeight="1">
       <c r="A74" s="40" t="s">
         <v>20</v>
       </c>
@@ -16247,8 +16466,10 @@
       <c r="AT74" s="16"/>
       <c r="AU74" s="16"/>
       <c r="AV74" s="16"/>
-    </row>
-    <row r="75" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ74" s="69"/>
+      <c r="BA74" s="69"/>
+    </row>
+    <row r="75" spans="1:53" ht="13" customHeight="1">
       <c r="A75" s="40" t="s">
         <v>20</v>
       </c>
@@ -16313,8 +16534,10 @@
       <c r="AT75" s="16"/>
       <c r="AU75" s="16"/>
       <c r="AV75" s="16"/>
-    </row>
-    <row r="76" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ75" s="69"/>
+      <c r="BA75" s="69"/>
+    </row>
+    <row r="76" spans="1:53" ht="13" customHeight="1">
       <c r="A76" s="40" t="s">
         <v>20</v>
       </c>
@@ -16379,8 +16602,10 @@
       <c r="AT76" s="16"/>
       <c r="AU76" s="16"/>
       <c r="AV76" s="16"/>
-    </row>
-    <row r="77" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ76" s="69"/>
+      <c r="BA76" s="69"/>
+    </row>
+    <row r="77" spans="1:53" ht="13" customHeight="1">
       <c r="A77" s="40" t="s">
         <v>45</v>
       </c>
@@ -16465,8 +16690,10 @@
       <c r="AT77" s="16"/>
       <c r="AU77" s="16"/>
       <c r="AV77" s="16"/>
-    </row>
-    <row r="78" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ77" s="69"/>
+      <c r="BA77" s="69"/>
+    </row>
+    <row r="78" spans="1:53" ht="13" customHeight="1">
       <c r="A78" s="40" t="s">
         <v>27</v>
       </c>
@@ -16503,8 +16730,10 @@
       <c r="AT78" s="16"/>
       <c r="AU78" s="16"/>
       <c r="AV78" s="16"/>
-    </row>
-    <row r="79" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ78" s="69"/>
+      <c r="BA78" s="69"/>
+    </row>
+    <row r="79" spans="1:53" ht="13" customHeight="1">
       <c r="A79" s="40" t="s">
         <v>133</v>
       </c>
@@ -16571,8 +16800,10 @@
       <c r="AT79" s="16"/>
       <c r="AU79" s="16"/>
       <c r="AV79" s="16"/>
-    </row>
-    <row r="80" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ79" s="69"/>
+      <c r="BA79" s="69"/>
+    </row>
+    <row r="80" spans="1:53" ht="13" customHeight="1">
       <c r="A80" s="40" t="s">
         <v>135</v>
       </c>
@@ -16664,8 +16895,10 @@
       <c r="AT80" s="16"/>
       <c r="AU80" s="16"/>
       <c r="AV80" s="16"/>
-    </row>
-    <row r="81" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ80" s="69"/>
+      <c r="BA80" s="69"/>
+    </row>
+    <row r="81" spans="1:53" ht="13" customHeight="1">
       <c r="A81" s="40" t="s">
         <v>138</v>
       </c>
@@ -16731,8 +16964,10 @@
       <c r="AT81" s="16"/>
       <c r="AU81" s="16"/>
       <c r="AV81" s="16"/>
-    </row>
-    <row r="82" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ81" s="69"/>
+      <c r="BA81" s="69"/>
+    </row>
+    <row r="82" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A82" s="53" t="s">
         <v>16</v>
       </c>
@@ -16760,8 +16995,10 @@
       <c r="AQ82" s="53"/>
       <c r="AR82" s="53"/>
       <c r="AS82" s="53"/>
-    </row>
-    <row r="83" spans="1:48" s="15" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ82" s="69"/>
+      <c r="BA82" s="69"/>
+    </row>
+    <row r="83" spans="1:53" s="15" customFormat="1" ht="13" customHeight="1">
       <c r="A83" s="57" t="s">
         <v>20</v>
       </c>
@@ -16788,8 +17025,10 @@
       <c r="AQ83" s="57"/>
       <c r="AR83" s="57"/>
       <c r="AS83" s="57"/>
-    </row>
-    <row r="84" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ83" s="69"/>
+      <c r="BA83" s="69"/>
+    </row>
+    <row r="84" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A84" s="64" t="s">
         <v>2284</v>
       </c>
@@ -16819,8 +17058,10 @@
       <c r="AQ84" s="53"/>
       <c r="AR84" s="53"/>
       <c r="AS84" s="53"/>
-    </row>
-    <row r="85" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ84" s="69"/>
+      <c r="BA84" s="69"/>
+    </row>
+    <row r="85" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A85" s="53" t="s">
         <v>118</v>
       </c>
@@ -16854,8 +17095,10 @@
       <c r="AQ85" s="53"/>
       <c r="AR85" s="53"/>
       <c r="AS85" s="53"/>
-    </row>
-    <row r="86" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ85" s="69"/>
+      <c r="BA85" s="69"/>
+    </row>
+    <row r="86" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A86" s="53" t="s">
         <v>14</v>
       </c>
@@ -16880,8 +17123,10 @@
       <c r="AQ86" s="53"/>
       <c r="AR86" s="53"/>
       <c r="AS86" s="53"/>
-    </row>
-    <row r="87" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ86" s="69"/>
+      <c r="BA86" s="69"/>
+    </row>
+    <row r="87" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A87" s="53" t="s">
         <v>27</v>
       </c>
@@ -16905,8 +17150,10 @@
       <c r="AQ87" s="53"/>
       <c r="AR87" s="53"/>
       <c r="AS87" s="53"/>
-    </row>
-    <row r="88" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ87" s="69"/>
+      <c r="BA87" s="69"/>
+    </row>
+    <row r="88" spans="1:53" ht="13" customHeight="1">
       <c r="A88" s="40" t="s">
         <v>14</v>
       </c>
@@ -16946,8 +17193,10 @@
       <c r="AT88" s="16"/>
       <c r="AU88" s="16"/>
       <c r="AV88" s="16"/>
-    </row>
-    <row r="89" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ88" s="67"/>
+      <c r="BA88" s="67"/>
+    </row>
+    <row r="89" spans="1:53" ht="13" customHeight="1">
       <c r="A89" s="40" t="s">
         <v>14</v>
       </c>
@@ -16987,8 +17236,10 @@
       <c r="AT89" s="16"/>
       <c r="AU89" s="16"/>
       <c r="AV89" s="16"/>
-    </row>
-    <row r="90" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ89" s="67"/>
+      <c r="BA89" s="67"/>
+    </row>
+    <row r="90" spans="1:53" ht="13" customHeight="1">
       <c r="A90" s="40" t="s">
         <v>14</v>
       </c>
@@ -17028,8 +17279,10 @@
       <c r="AT90" s="16"/>
       <c r="AU90" s="16"/>
       <c r="AV90" s="16"/>
-    </row>
-    <row r="91" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ90" s="67"/>
+      <c r="BA90" s="67"/>
+    </row>
+    <row r="91" spans="1:53" ht="13" customHeight="1">
       <c r="A91" s="40" t="s">
         <v>28</v>
       </c>
@@ -17097,8 +17350,10 @@
       <c r="AT91" s="16"/>
       <c r="AU91" s="16"/>
       <c r="AV91" s="16"/>
-    </row>
-    <row r="92" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ91" s="67"/>
+      <c r="BA91" s="67"/>
+    </row>
+    <row r="92" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A92" s="53" t="s">
         <v>16</v>
       </c>
@@ -17126,8 +17381,10 @@
       <c r="AQ92" s="53"/>
       <c r="AR92" s="53"/>
       <c r="AS92" s="53"/>
-    </row>
-    <row r="93" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ92" s="67"/>
+      <c r="BA92" s="67"/>
+    </row>
+    <row r="93" spans="1:53" ht="13" customHeight="1">
       <c r="A93" s="40" t="s">
         <v>20</v>
       </c>
@@ -17231,8 +17488,10 @@
       <c r="AT93" s="16"/>
       <c r="AU93" s="16"/>
       <c r="AV93" s="16"/>
-    </row>
-    <row r="94" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ93" s="67"/>
+      <c r="BA93" s="67"/>
+    </row>
+    <row r="94" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A94" s="64" t="s">
         <v>2284</v>
       </c>
@@ -17262,8 +17521,10 @@
       <c r="AQ94" s="53"/>
       <c r="AR94" s="53"/>
       <c r="AS94" s="53"/>
-    </row>
-    <row r="95" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ94" s="67"/>
+      <c r="BA94" s="67"/>
+    </row>
+    <row r="95" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A95" s="53" t="s">
         <v>118</v>
       </c>
@@ -17299,8 +17560,10 @@
       <c r="AQ95" s="53"/>
       <c r="AR95" s="53"/>
       <c r="AS95" s="53"/>
-    </row>
-    <row r="96" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ95" s="67"/>
+      <c r="BA95" s="67"/>
+    </row>
+    <row r="96" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A96" s="53" t="s">
         <v>14</v>
       </c>
@@ -17317,8 +17580,10 @@
       <c r="AQ96" s="53"/>
       <c r="AR96" s="53"/>
       <c r="AS96" s="53"/>
-    </row>
-    <row r="97" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ96" s="67"/>
+      <c r="BA96" s="67"/>
+    </row>
+    <row r="97" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A97" s="53" t="s">
         <v>27</v>
       </c>
@@ -17342,8 +17607,10 @@
       <c r="AQ97" s="53"/>
       <c r="AR97" s="53"/>
       <c r="AS97" s="53"/>
-    </row>
-    <row r="98" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ97" s="67"/>
+      <c r="BA97" s="67"/>
+    </row>
+    <row r="98" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A98" s="53" t="s">
         <v>20</v>
       </c>
@@ -17366,8 +17633,10 @@
       <c r="AQ98" s="53"/>
       <c r="AR98" s="53"/>
       <c r="AS98" s="53"/>
-    </row>
-    <row r="99" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ98" s="67"/>
+      <c r="BA98" s="67"/>
+    </row>
+    <row r="99" spans="1:53" ht="13" customHeight="1">
       <c r="A99" s="40" t="s">
         <v>14</v>
       </c>
@@ -17407,8 +17676,10 @@
       <c r="AT99" s="16"/>
       <c r="AU99" s="16"/>
       <c r="AV99" s="16"/>
-    </row>
-    <row r="100" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ99" s="67"/>
+      <c r="BA99" s="67"/>
+    </row>
+    <row r="100" spans="1:53" ht="13" customHeight="1">
       <c r="A100" s="40" t="s">
         <v>14</v>
       </c>
@@ -17448,8 +17719,10 @@
       <c r="AT100" s="16"/>
       <c r="AU100" s="16"/>
       <c r="AV100" s="16"/>
-    </row>
-    <row r="101" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ100" s="67"/>
+      <c r="BA100" s="67"/>
+    </row>
+    <row r="101" spans="1:53" ht="13" customHeight="1">
       <c r="A101" s="40" t="s">
         <v>14</v>
       </c>
@@ -17489,8 +17762,10 @@
       <c r="AT101" s="16"/>
       <c r="AU101" s="16"/>
       <c r="AV101" s="16"/>
-    </row>
-    <row r="102" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ101" s="31"/>
+      <c r="BA101" s="31"/>
+    </row>
+    <row r="102" spans="1:53" ht="13" customHeight="1">
       <c r="A102" s="40" t="s">
         <v>28</v>
       </c>
@@ -17558,8 +17833,10 @@
       <c r="AT102" s="16"/>
       <c r="AU102" s="16"/>
       <c r="AV102" s="16"/>
-    </row>
-    <row r="103" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ102" s="67"/>
+      <c r="BA102" s="67"/>
+    </row>
+    <row r="103" spans="1:53" ht="13" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>165</v>
       </c>
@@ -17625,8 +17902,10 @@
       <c r="AT103" s="16"/>
       <c r="AU103" s="16"/>
       <c r="AV103" s="16"/>
-    </row>
-    <row r="104" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ103" s="31"/>
+      <c r="BA103" s="31"/>
+    </row>
+    <row r="104" spans="1:53" ht="13" customHeight="1">
       <c r="A104" s="40" t="s">
         <v>167</v>
       </c>
@@ -17692,8 +17971,10 @@
       <c r="AT104" s="16"/>
       <c r="AU104" s="16"/>
       <c r="AV104" s="16"/>
-    </row>
-    <row r="105" spans="1:48" s="49" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ104" s="31"/>
+      <c r="BA104" s="31"/>
+    </row>
+    <row r="105" spans="1:53" s="49" customFormat="1" ht="13" customHeight="1">
       <c r="A105" s="47" t="s">
         <v>20</v>
       </c>
@@ -17767,8 +18048,10 @@
       <c r="AT105" s="48"/>
       <c r="AU105" s="48"/>
       <c r="AV105" s="48"/>
-    </row>
-    <row r="106" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ105" s="31"/>
+      <c r="BA105" s="31"/>
+    </row>
+    <row r="106" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A106" s="40" t="s">
         <v>215</v>
       </c>
@@ -17842,8 +18125,10 @@
       <c r="AT106" s="10"/>
       <c r="AU106" s="10"/>
       <c r="AV106" s="10"/>
-    </row>
-    <row r="107" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ106" s="31"/>
+      <c r="BA106" s="31"/>
+    </row>
+    <row r="107" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A107" s="40" t="s">
         <v>45</v>
       </c>
@@ -17937,8 +18222,10 @@
       <c r="AT107" s="10"/>
       <c r="AU107" s="10"/>
       <c r="AV107" s="10"/>
-    </row>
-    <row r="108" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ107" s="31"/>
+      <c r="BA107" s="31"/>
+    </row>
+    <row r="108" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A108" s="40" t="s">
         <v>215</v>
       </c>
@@ -18012,8 +18299,10 @@
       <c r="AT108" s="10"/>
       <c r="AU108" s="10"/>
       <c r="AV108" s="10"/>
-    </row>
-    <row r="109" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ108" s="31"/>
+      <c r="BA108" s="31"/>
+    </row>
+    <row r="109" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A109" s="40" t="s">
         <v>45</v>
       </c>
@@ -18107,8 +18396,10 @@
       <c r="AT109" s="10"/>
       <c r="AU109" s="10"/>
       <c r="AV109" s="10"/>
-    </row>
-    <row r="110" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ109" s="34"/>
+      <c r="BA109" s="68"/>
+    </row>
+    <row r="110" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A110" s="40" t="s">
         <v>45</v>
       </c>
@@ -18202,8 +18493,10 @@
       <c r="AT110" s="10"/>
       <c r="AU110" s="10"/>
       <c r="AV110" s="10"/>
-    </row>
-    <row r="111" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ110" s="31"/>
+      <c r="BA110" s="31"/>
+    </row>
+    <row r="111" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A111" s="40" t="s">
         <v>20</v>
       </c>
@@ -18277,8 +18570,10 @@
       <c r="AT111" s="10"/>
       <c r="AU111" s="10"/>
       <c r="AV111" s="10"/>
-    </row>
-    <row r="112" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ111" s="31"/>
+      <c r="BA111" s="31"/>
+    </row>
+    <row r="112" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A112" s="40" t="s">
         <v>215</v>
       </c>
@@ -18352,8 +18647,10 @@
       <c r="AT112" s="10"/>
       <c r="AU112" s="10"/>
       <c r="AV112" s="10"/>
-    </row>
-    <row r="113" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ112" s="67"/>
+      <c r="BA112" s="67"/>
+    </row>
+    <row r="113" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A113" s="40" t="s">
         <v>45</v>
       </c>
@@ -18447,8 +18744,10 @@
       <c r="AT113" s="10"/>
       <c r="AU113" s="10"/>
       <c r="AV113" s="10"/>
-    </row>
-    <row r="114" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ113" s="67"/>
+      <c r="BA113" s="67"/>
+    </row>
+    <row r="114" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A114" s="40" t="s">
         <v>45</v>
       </c>
@@ -18542,8 +18841,10 @@
       <c r="AT114" s="10"/>
       <c r="AU114" s="10"/>
       <c r="AV114" s="10"/>
-    </row>
-    <row r="115" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ114" s="67"/>
+      <c r="BA114" s="67"/>
+    </row>
+    <row r="115" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A115" s="40" t="s">
         <v>20</v>
       </c>
@@ -18617,8 +18918,10 @@
       <c r="AT115" s="10"/>
       <c r="AU115" s="10"/>
       <c r="AV115" s="10"/>
-    </row>
-    <row r="116" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ115" s="67"/>
+      <c r="BA115" s="67"/>
+    </row>
+    <row r="116" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A116" s="40" t="s">
         <v>215</v>
       </c>
@@ -18710,8 +19013,10 @@
       <c r="AT116" s="10"/>
       <c r="AU116" s="10"/>
       <c r="AV116" s="10"/>
-    </row>
-    <row r="117" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ116" s="67"/>
+      <c r="BA116" s="67"/>
+    </row>
+    <row r="117" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A117" s="40" t="s">
         <v>45</v>
       </c>
@@ -18805,8 +19110,10 @@
       <c r="AT117" s="10"/>
       <c r="AU117" s="10"/>
       <c r="AV117" s="10"/>
-    </row>
-    <row r="118" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ117" s="67"/>
+      <c r="BA117" s="67"/>
+    </row>
+    <row r="118" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A118" s="40" t="s">
         <v>45</v>
       </c>
@@ -18900,8 +19207,10 @@
       <c r="AT118" s="10"/>
       <c r="AU118" s="10"/>
       <c r="AV118" s="10"/>
-    </row>
-    <row r="119" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ118" s="67"/>
+      <c r="BA118" s="67"/>
+    </row>
+    <row r="119" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A119" s="40" t="s">
         <v>45</v>
       </c>
@@ -18995,8 +19304,10 @@
       <c r="AT119" s="10"/>
       <c r="AU119" s="10"/>
       <c r="AV119" s="10"/>
-    </row>
-    <row r="120" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ119" s="67"/>
+      <c r="BA119" s="67"/>
+    </row>
+    <row r="120" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A120" s="40" t="s">
         <v>20</v>
       </c>
@@ -19070,8 +19381,10 @@
       <c r="AT120" s="10"/>
       <c r="AU120" s="10"/>
       <c r="AV120" s="10"/>
-    </row>
-    <row r="121" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ120" s="67"/>
+      <c r="BA120" s="67"/>
+    </row>
+    <row r="121" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>14</v>
       </c>
@@ -19125,8 +19438,10 @@
       <c r="AT121" s="10"/>
       <c r="AU121" s="10"/>
       <c r="AV121" s="10"/>
-    </row>
-    <row r="122" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ121" s="67"/>
+      <c r="BA121" s="67"/>
+    </row>
+    <row r="122" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A122" s="40" t="s">
         <v>14</v>
       </c>
@@ -19180,8 +19495,10 @@
       <c r="AT122" s="10"/>
       <c r="AU122" s="10"/>
       <c r="AV122" s="10"/>
-    </row>
-    <row r="123" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ122" s="67"/>
+      <c r="BA122" s="67"/>
+    </row>
+    <row r="123" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A123" s="40" t="s">
         <v>20</v>
       </c>
@@ -19255,8 +19572,10 @@
       <c r="AT123" s="10"/>
       <c r="AU123" s="10"/>
       <c r="AV123" s="10"/>
-    </row>
-    <row r="124" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ123" s="67"/>
+      <c r="BA123" s="67"/>
+    </row>
+    <row r="124" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A124" s="40" t="s">
         <v>28</v>
       </c>
@@ -19350,8 +19669,10 @@
       <c r="AT124" s="10"/>
       <c r="AU124" s="10"/>
       <c r="AV124" s="10"/>
-    </row>
-    <row r="125" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ124" s="67"/>
+      <c r="BA124" s="67"/>
+    </row>
+    <row r="125" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A125" s="53" t="s">
         <v>16</v>
       </c>
@@ -19379,8 +19700,10 @@
       <c r="AQ125" s="53"/>
       <c r="AR125" s="53"/>
       <c r="AS125" s="53"/>
-    </row>
-    <row r="126" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ125" s="67"/>
+      <c r="BA125" s="67"/>
+    </row>
+    <row r="126" spans="1:53" ht="13" customHeight="1">
       <c r="A126" s="40" t="s">
         <v>20</v>
       </c>
@@ -19484,8 +19807,10 @@
       <c r="AT126" s="16"/>
       <c r="AU126" s="16"/>
       <c r="AV126" s="16"/>
-    </row>
-    <row r="127" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ126" s="67"/>
+      <c r="BA126" s="67"/>
+    </row>
+    <row r="127" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A127" s="64" t="s">
         <v>2284</v>
       </c>
@@ -19515,8 +19840,10 @@
       <c r="AQ127" s="53"/>
       <c r="AR127" s="53"/>
       <c r="AS127" s="53"/>
-    </row>
-    <row r="128" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ127" s="67"/>
+      <c r="BA127" s="67"/>
+    </row>
+    <row r="128" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A128" s="53" t="s">
         <v>118</v>
       </c>
@@ -19552,8 +19879,10 @@
       <c r="AQ128" s="53"/>
       <c r="AR128" s="53"/>
       <c r="AS128" s="53"/>
-    </row>
-    <row r="129" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ128" s="67"/>
+      <c r="BA128" s="67"/>
+    </row>
+    <row r="129" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A129" s="53" t="s">
         <v>14</v>
       </c>
@@ -19578,8 +19907,10 @@
       <c r="AQ129" s="53"/>
       <c r="AR129" s="53"/>
       <c r="AS129" s="53"/>
-    </row>
-    <row r="130" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ129" s="67"/>
+      <c r="BA129" s="67"/>
+    </row>
+    <row r="130" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A130" s="53" t="s">
         <v>27</v>
       </c>
@@ -19603,8 +19934,10 @@
       <c r="AQ130" s="53"/>
       <c r="AR130" s="53"/>
       <c r="AS130" s="53"/>
-    </row>
-    <row r="131" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ130" s="67"/>
+      <c r="BA130" s="67"/>
+    </row>
+    <row r="131" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A131" s="53" t="s">
         <v>16</v>
       </c>
@@ -19632,8 +19965,10 @@
       <c r="AQ131" s="53"/>
       <c r="AR131" s="53"/>
       <c r="AS131" s="53"/>
-    </row>
-    <row r="132" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ131" s="67"/>
+      <c r="BA131" s="67"/>
+    </row>
+    <row r="132" spans="1:53" ht="13" customHeight="1">
       <c r="A132" s="40" t="s">
         <v>20</v>
       </c>
@@ -19737,8 +20072,10 @@
       <c r="AT132" s="16"/>
       <c r="AU132" s="16"/>
       <c r="AV132" s="16"/>
-    </row>
-    <row r="133" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ132" s="67"/>
+      <c r="BA132" s="67"/>
+    </row>
+    <row r="133" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A133" s="64" t="s">
         <v>2284</v>
       </c>
@@ -19768,8 +20105,10 @@
       <c r="AQ133" s="53"/>
       <c r="AR133" s="53"/>
       <c r="AS133" s="53"/>
-    </row>
-    <row r="134" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ133" s="67"/>
+      <c r="BA133" s="67"/>
+    </row>
+    <row r="134" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A134" s="53" t="s">
         <v>118</v>
       </c>
@@ -19805,8 +20144,10 @@
       <c r="AQ134" s="53"/>
       <c r="AR134" s="53"/>
       <c r="AS134" s="53"/>
-    </row>
-    <row r="135" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ134" s="67"/>
+      <c r="BA134" s="67"/>
+    </row>
+    <row r="135" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A135" s="53" t="s">
         <v>14</v>
       </c>
@@ -19831,8 +20172,10 @@
       <c r="AQ135" s="53"/>
       <c r="AR135" s="53"/>
       <c r="AS135" s="53"/>
-    </row>
-    <row r="136" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ135" s="67"/>
+      <c r="BA135" s="67"/>
+    </row>
+    <row r="136" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A136" s="53" t="s">
         <v>27</v>
       </c>
@@ -19856,8 +20199,10 @@
       <c r="AQ136" s="53"/>
       <c r="AR136" s="53"/>
       <c r="AS136" s="53"/>
-    </row>
-    <row r="137" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ136" s="67"/>
+      <c r="BA136" s="67"/>
+    </row>
+    <row r="137" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A137" s="53" t="s">
         <v>20</v>
       </c>
@@ -19887,8 +20232,10 @@
       <c r="AQ137" s="53"/>
       <c r="AR137" s="53"/>
       <c r="AS137" s="53"/>
-    </row>
-    <row r="138" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ137" s="67"/>
+      <c r="BA137" s="67"/>
+    </row>
+    <row r="138" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A138" s="53" t="s">
         <v>20</v>
       </c>
@@ -19918,8 +20265,10 @@
       <c r="AQ138" s="53"/>
       <c r="AR138" s="53"/>
       <c r="AS138" s="53"/>
-    </row>
-    <row r="139" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ138" s="67"/>
+      <c r="BA138" s="67"/>
+    </row>
+    <row r="139" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A139" s="53" t="s">
         <v>16</v>
       </c>
@@ -19947,8 +20296,10 @@
       <c r="AQ139" s="53"/>
       <c r="AR139" s="53"/>
       <c r="AS139" s="53"/>
-    </row>
-    <row r="140" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ139" s="67"/>
+      <c r="BA139" s="67"/>
+    </row>
+    <row r="140" spans="1:53" ht="13" customHeight="1">
       <c r="A140" s="40" t="s">
         <v>20</v>
       </c>
@@ -20052,8 +20403,10 @@
       <c r="AT140" s="16"/>
       <c r="AU140" s="16"/>
       <c r="AV140" s="16"/>
-    </row>
-    <row r="141" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ140" s="67"/>
+      <c r="BA140" s="67"/>
+    </row>
+    <row r="141" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A141" s="64" t="s">
         <v>2284</v>
       </c>
@@ -20083,8 +20436,10 @@
       <c r="AQ141" s="53"/>
       <c r="AR141" s="53"/>
       <c r="AS141" s="53"/>
-    </row>
-    <row r="142" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ141" s="67"/>
+      <c r="BA141" s="67"/>
+    </row>
+    <row r="142" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A142" s="53" t="s">
         <v>118</v>
       </c>
@@ -20120,8 +20475,10 @@
       <c r="AQ142" s="53"/>
       <c r="AR142" s="53"/>
       <c r="AS142" s="53"/>
-    </row>
-    <row r="143" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ142" s="67"/>
+      <c r="BA142" s="67"/>
+    </row>
+    <row r="143" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A143" s="53" t="s">
         <v>14</v>
       </c>
@@ -20146,8 +20503,10 @@
       <c r="AQ143" s="53"/>
       <c r="AR143" s="53"/>
       <c r="AS143" s="53"/>
-    </row>
-    <row r="144" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ143" s="67"/>
+      <c r="BA143" s="67"/>
+    </row>
+    <row r="144" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A144" s="53" t="s">
         <v>27</v>
       </c>
@@ -20171,8 +20530,10 @@
       <c r="AQ144" s="53"/>
       <c r="AR144" s="53"/>
       <c r="AS144" s="53"/>
-    </row>
-    <row r="145" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ144" s="67"/>
+      <c r="BA144" s="67"/>
+    </row>
+    <row r="145" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A145" s="53" t="s">
         <v>20</v>
       </c>
@@ -20202,8 +20563,10 @@
       <c r="AQ145" s="53"/>
       <c r="AR145" s="53"/>
       <c r="AS145" s="53"/>
-    </row>
-    <row r="146" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ145" s="67"/>
+      <c r="BA145" s="67"/>
+    </row>
+    <row r="146" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A146" s="53" t="s">
         <v>20</v>
       </c>
@@ -20233,8 +20596,10 @@
       <c r="AQ146" s="53"/>
       <c r="AR146" s="53"/>
       <c r="AS146" s="53"/>
-    </row>
-    <row r="147" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ146" s="67"/>
+      <c r="BA146" s="67"/>
+    </row>
+    <row r="147" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A147" s="53" t="s">
         <v>20</v>
       </c>
@@ -20264,8 +20629,10 @@
       <c r="AQ147" s="53"/>
       <c r="AR147" s="53"/>
       <c r="AS147" s="53"/>
-    </row>
-    <row r="148" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ147" s="67"/>
+      <c r="BA147" s="67"/>
+    </row>
+    <row r="148" spans="1:53" ht="13" customHeight="1">
       <c r="A148" s="40" t="s">
         <v>165</v>
       </c>
@@ -20331,8 +20698,10 @@
       <c r="AT148" s="16"/>
       <c r="AU148" s="16"/>
       <c r="AV148" s="16"/>
-    </row>
-    <row r="149" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ148" s="67"/>
+      <c r="BA148" s="67"/>
+    </row>
+    <row r="149" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A149" s="53" t="s">
         <v>16</v>
       </c>
@@ -20360,8 +20729,10 @@
       <c r="AQ149" s="53"/>
       <c r="AR149" s="53"/>
       <c r="AS149" s="53"/>
-    </row>
-    <row r="150" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ149" s="67"/>
+      <c r="BA149" s="67"/>
+    </row>
+    <row r="150" spans="1:53" ht="13" customHeight="1">
       <c r="A150" s="40" t="s">
         <v>20</v>
       </c>
@@ -20465,8 +20836,10 @@
       <c r="AT150" s="16"/>
       <c r="AU150" s="16"/>
       <c r="AV150" s="16"/>
-    </row>
-    <row r="151" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ150" s="67"/>
+      <c r="BA150" s="67"/>
+    </row>
+    <row r="151" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A151" s="64" t="s">
         <v>2284</v>
       </c>
@@ -20496,8 +20869,10 @@
       <c r="AQ151" s="53"/>
       <c r="AR151" s="53"/>
       <c r="AS151" s="53"/>
-    </row>
-    <row r="152" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ151" s="67"/>
+      <c r="BA151" s="67"/>
+    </row>
+    <row r="152" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A152" s="53" t="s">
         <v>118</v>
       </c>
@@ -20533,8 +20908,10 @@
       <c r="AQ152" s="53"/>
       <c r="AR152" s="53"/>
       <c r="AS152" s="53"/>
-    </row>
-    <row r="153" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ152" s="67"/>
+      <c r="BA152" s="67"/>
+    </row>
+    <row r="153" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A153" s="53" t="s">
         <v>14</v>
       </c>
@@ -20559,8 +20936,10 @@
       <c r="AQ153" s="53"/>
       <c r="AR153" s="53"/>
       <c r="AS153" s="53"/>
-    </row>
-    <row r="154" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ153" s="67"/>
+      <c r="BA153" s="67"/>
+    </row>
+    <row r="154" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A154" s="53" t="s">
         <v>27</v>
       </c>
@@ -20584,8 +20963,10 @@
       <c r="AQ154" s="53"/>
       <c r="AR154" s="53"/>
       <c r="AS154" s="53"/>
-    </row>
-    <row r="155" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ154" s="67"/>
+      <c r="BA154" s="67"/>
+    </row>
+    <row r="155" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A155" s="53" t="s">
         <v>20</v>
       </c>
@@ -20615,8 +20996,10 @@
       <c r="AQ155" s="53"/>
       <c r="AR155" s="53"/>
       <c r="AS155" s="53"/>
-    </row>
-    <row r="156" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ155" s="67"/>
+      <c r="BA155" s="67"/>
+    </row>
+    <row r="156" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A156" s="53" t="s">
         <v>20</v>
       </c>
@@ -20646,8 +21029,10 @@
       <c r="AQ156" s="53"/>
       <c r="AR156" s="53"/>
       <c r="AS156" s="53"/>
-    </row>
-    <row r="157" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ156" s="67"/>
+      <c r="BA156" s="67"/>
+    </row>
+    <row r="157" spans="1:53" ht="13" customHeight="1">
       <c r="A157" s="40" t="s">
         <v>181</v>
       </c>
@@ -20739,8 +21124,10 @@
       <c r="AT157" s="16"/>
       <c r="AU157" s="16"/>
       <c r="AV157" s="16"/>
-    </row>
-    <row r="158" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ157" s="67"/>
+      <c r="BA157" s="67"/>
+    </row>
+    <row r="158" spans="1:53" ht="13" customHeight="1">
       <c r="A158" s="40" t="s">
         <v>14</v>
       </c>
@@ -20778,8 +21165,10 @@
       <c r="AT158" s="16"/>
       <c r="AU158" s="16"/>
       <c r="AV158" s="16"/>
-    </row>
-    <row r="159" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ158" s="67"/>
+      <c r="BA158" s="67"/>
+    </row>
+    <row r="159" spans="1:53" ht="13" customHeight="1">
       <c r="A159" s="40" t="s">
         <v>28</v>
       </c>
@@ -20891,8 +21280,10 @@
       <c r="AT159" s="16"/>
       <c r="AU159" s="16"/>
       <c r="AV159" s="16"/>
-    </row>
-    <row r="160" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ159" s="67"/>
+      <c r="BA159" s="67"/>
+    </row>
+    <row r="160" spans="1:53" ht="13" customHeight="1">
       <c r="A160" s="40" t="s">
         <v>45</v>
       </c>
@@ -21004,8 +21395,10 @@
       <c r="AT160" s="16"/>
       <c r="AU160" s="16"/>
       <c r="AV160" s="16"/>
-    </row>
-    <row r="161" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ160" s="67"/>
+      <c r="BA160" s="67"/>
+    </row>
+    <row r="161" spans="1:53" ht="13" customHeight="1">
       <c r="A161" s="40" t="s">
         <v>194</v>
       </c>
@@ -21071,8 +21464,10 @@
       <c r="AT161" s="16"/>
       <c r="AU161" s="16"/>
       <c r="AV161" s="16"/>
-    </row>
-    <row r="162" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ161" s="67"/>
+      <c r="BA161" s="67"/>
+    </row>
+    <row r="162" spans="1:53" ht="13" customHeight="1">
       <c r="A162" s="40" t="s">
         <v>28</v>
       </c>
@@ -21184,8 +21579,10 @@
       <c r="AT162" s="16"/>
       <c r="AU162" s="16"/>
       <c r="AV162" s="16"/>
-    </row>
-    <row r="163" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ162" s="67"/>
+      <c r="BA162" s="67"/>
+    </row>
+    <row r="163" spans="1:53" ht="13" customHeight="1">
       <c r="A163" s="40" t="s">
         <v>14</v>
       </c>
@@ -21225,8 +21622,10 @@
       <c r="AT163" s="16"/>
       <c r="AU163" s="16"/>
       <c r="AV163" s="16"/>
-    </row>
-    <row r="164" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ163" s="67"/>
+      <c r="BA163" s="67"/>
+    </row>
+    <row r="164" spans="1:53" ht="13" customHeight="1">
       <c r="A164" s="40" t="s">
         <v>14</v>
       </c>
@@ -21266,8 +21665,10 @@
       <c r="AT164" s="16"/>
       <c r="AU164" s="16"/>
       <c r="AV164" s="16"/>
-    </row>
-    <row r="165" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ164" s="67"/>
+      <c r="BA164" s="67"/>
+    </row>
+    <row r="165" spans="1:53" ht="13" customHeight="1">
       <c r="A165" s="40" t="s">
         <v>16</v>
       </c>
@@ -21307,8 +21708,10 @@
       <c r="AT165" s="16"/>
       <c r="AU165" s="16"/>
       <c r="AV165" s="16"/>
-    </row>
-    <row r="166" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ165" s="67"/>
+      <c r="BA165" s="67"/>
+    </row>
+    <row r="166" spans="1:53" ht="13" customHeight="1">
       <c r="A166" s="40" t="s">
         <v>20</v>
       </c>
@@ -21370,8 +21773,10 @@
       <c r="AT166" s="16"/>
       <c r="AU166" s="16"/>
       <c r="AV166" s="16"/>
-    </row>
-    <row r="167" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ166" s="67"/>
+      <c r="BA166" s="67"/>
+    </row>
+    <row r="167" spans="1:53" ht="13" customHeight="1">
       <c r="A167" s="40" t="s">
         <v>20</v>
       </c>
@@ -21435,8 +21840,10 @@
       <c r="AT167" s="16"/>
       <c r="AU167" s="16"/>
       <c r="AV167" s="16"/>
-    </row>
-    <row r="168" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ167" s="67"/>
+      <c r="BA167" s="67"/>
+    </row>
+    <row r="168" spans="1:53" ht="13" customHeight="1">
       <c r="A168" s="40" t="s">
         <v>45</v>
       </c>
@@ -21546,8 +21953,10 @@
       <c r="AT168" s="16"/>
       <c r="AU168" s="16"/>
       <c r="AV168" s="16"/>
-    </row>
-    <row r="169" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ168" s="67"/>
+      <c r="BA168" s="67"/>
+    </row>
+    <row r="169" spans="1:53" ht="13" customHeight="1">
       <c r="A169" s="40" t="s">
         <v>27</v>
       </c>
@@ -21584,8 +21993,10 @@
       <c r="AT169" s="16"/>
       <c r="AU169" s="16"/>
       <c r="AV169" s="16"/>
-    </row>
-    <row r="170" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ169" s="67"/>
+      <c r="BA169" s="67"/>
+    </row>
+    <row r="170" spans="1:53" ht="13" customHeight="1">
       <c r="A170" s="40" t="s">
         <v>28</v>
       </c>
@@ -21697,8 +22108,10 @@
       <c r="AT170" s="16"/>
       <c r="AU170" s="16"/>
       <c r="AV170" s="16"/>
-    </row>
-    <row r="171" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ170" s="67"/>
+      <c r="BA170" s="67"/>
+    </row>
+    <row r="171" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A171" s="40" t="s">
         <v>20</v>
       </c>
@@ -21770,8 +22183,10 @@
       <c r="AT171" s="10"/>
       <c r="AU171" s="10"/>
       <c r="AV171" s="10"/>
-    </row>
-    <row r="172" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ171" s="67"/>
+      <c r="BA171" s="67"/>
+    </row>
+    <row r="172" spans="1:53" ht="13" customHeight="1">
       <c r="A172" s="40" t="s">
         <v>776</v>
       </c>
@@ -21838,8 +22253,10 @@
       <c r="AT172" s="16"/>
       <c r="AU172" s="16"/>
       <c r="AV172" s="16"/>
-    </row>
-    <row r="173" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ172" s="67"/>
+      <c r="BA172" s="67"/>
+    </row>
+    <row r="173" spans="1:53" ht="13" customHeight="1">
       <c r="A173" s="40" t="s">
         <v>780</v>
       </c>
@@ -21906,8 +22323,10 @@
       <c r="AT173" s="16"/>
       <c r="AU173" s="16"/>
       <c r="AV173" s="16"/>
-    </row>
-    <row r="174" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ173" s="67"/>
+      <c r="BA173" s="67"/>
+    </row>
+    <row r="174" spans="1:53" ht="13" customHeight="1">
       <c r="A174" s="40" t="s">
         <v>780</v>
       </c>
@@ -21974,8 +22393,10 @@
       <c r="AT174" s="16"/>
       <c r="AU174" s="16"/>
       <c r="AV174" s="16"/>
-    </row>
-    <row r="175" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ174" s="67"/>
+      <c r="BA174" s="67"/>
+    </row>
+    <row r="175" spans="1:53" ht="13" customHeight="1">
       <c r="A175" s="40" t="s">
         <v>208</v>
       </c>
@@ -22068,8 +22489,10 @@
       <c r="AT175" s="16"/>
       <c r="AU175" s="16"/>
       <c r="AV175" s="16"/>
-    </row>
-    <row r="176" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ175" s="67"/>
+      <c r="BA175" s="67"/>
+    </row>
+    <row r="176" spans="1:53" ht="13" customHeight="1">
       <c r="A176" s="40" t="s">
         <v>208</v>
       </c>
@@ -22162,8 +22585,10 @@
       <c r="AT176" s="16"/>
       <c r="AU176" s="16"/>
       <c r="AV176" s="16"/>
-    </row>
-    <row r="177" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ176" s="67"/>
+      <c r="BA176" s="67"/>
+    </row>
+    <row r="177" spans="1:53" ht="13" customHeight="1">
       <c r="A177" s="40" t="s">
         <v>208</v>
       </c>
@@ -22256,8 +22681,10 @@
       <c r="AT177" s="16"/>
       <c r="AU177" s="16"/>
       <c r="AV177" s="16"/>
-    </row>
-    <row r="178" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ177" s="67"/>
+      <c r="BA177" s="67"/>
+    </row>
+    <row r="178" spans="1:53" ht="13" customHeight="1">
       <c r="A178" s="40" t="s">
         <v>14</v>
       </c>
@@ -22296,8 +22723,10 @@
       <c r="AT178" s="16"/>
       <c r="AU178" s="16"/>
       <c r="AV178" s="16"/>
-    </row>
-    <row r="179" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ178" s="67"/>
+      <c r="BA178" s="67"/>
+    </row>
+    <row r="179" spans="1:53" ht="13" customHeight="1">
       <c r="A179" s="40" t="s">
         <v>45</v>
       </c>
@@ -22384,8 +22813,10 @@
       <c r="AT179" s="16"/>
       <c r="AU179" s="16"/>
       <c r="AV179" s="16"/>
-    </row>
-    <row r="180" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ179" s="67"/>
+      <c r="BA179" s="67"/>
+    </row>
+    <row r="180" spans="1:53" ht="13" customHeight="1">
       <c r="A180" s="40" t="s">
         <v>16</v>
       </c>
@@ -22426,8 +22857,10 @@
       <c r="AT180" s="16"/>
       <c r="AU180" s="16"/>
       <c r="AV180" s="16"/>
-    </row>
-    <row r="181" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ180" s="67"/>
+      <c r="BA180" s="67"/>
+    </row>
+    <row r="181" spans="1:53" ht="13" customHeight="1">
       <c r="A181" s="40" t="s">
         <v>20</v>
       </c>
@@ -22492,8 +22925,10 @@
       <c r="AT181" s="16"/>
       <c r="AU181" s="16"/>
       <c r="AV181" s="16"/>
-    </row>
-    <row r="182" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ181" s="67"/>
+      <c r="BA181" s="67"/>
+    </row>
+    <row r="182" spans="1:53" ht="13" customHeight="1">
       <c r="A182" s="40" t="s">
         <v>20</v>
       </c>
@@ -22558,8 +22993,10 @@
       <c r="AT182" s="16"/>
       <c r="AU182" s="16"/>
       <c r="AV182" s="16"/>
-    </row>
-    <row r="183" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ182" s="67"/>
+      <c r="BA182" s="67"/>
+    </row>
+    <row r="183" spans="1:53" ht="13" customHeight="1">
       <c r="A183" s="40" t="s">
         <v>20</v>
       </c>
@@ -22624,8 +23061,10 @@
       <c r="AT183" s="16"/>
       <c r="AU183" s="16"/>
       <c r="AV183" s="16"/>
-    </row>
-    <row r="184" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ183" s="67"/>
+      <c r="BA183" s="67"/>
+    </row>
+    <row r="184" spans="1:53" ht="13" customHeight="1">
       <c r="A184" s="40" t="s">
         <v>20</v>
       </c>
@@ -22690,8 +23129,10 @@
       <c r="AT184" s="16"/>
       <c r="AU184" s="16"/>
       <c r="AV184" s="16"/>
-    </row>
-    <row r="185" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ184" s="67"/>
+      <c r="BA184" s="67"/>
+    </row>
+    <row r="185" spans="1:53" ht="13" customHeight="1">
       <c r="A185" s="40" t="s">
         <v>213</v>
       </c>
@@ -22756,8 +23197,10 @@
       <c r="AT185" s="16"/>
       <c r="AU185" s="16"/>
       <c r="AV185" s="16"/>
-    </row>
-    <row r="186" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ185" s="67"/>
+      <c r="BA185" s="67"/>
+    </row>
+    <row r="186" spans="1:53" ht="13" customHeight="1">
       <c r="A186" s="40" t="s">
         <v>27</v>
       </c>
@@ -22794,8 +23237,10 @@
       <c r="AT186" s="16"/>
       <c r="AU186" s="16"/>
       <c r="AV186" s="16"/>
-    </row>
-    <row r="187" spans="1:50" s="49" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ186" s="67"/>
+      <c r="BA186" s="67"/>
+    </row>
+    <row r="187" spans="1:53" s="49" customFormat="1" ht="13" customHeight="1">
       <c r="A187" s="47" t="s">
         <v>20</v>
       </c>
@@ -22885,8 +23330,10 @@
       <c r="AT187" s="48"/>
       <c r="AU187" s="48"/>
       <c r="AV187" s="48"/>
-    </row>
-    <row r="188" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ187" s="67"/>
+      <c r="BA187" s="67"/>
+    </row>
+    <row r="188" spans="1:53" ht="13" customHeight="1">
       <c r="A188" s="40" t="s">
         <v>215</v>
       </c>
@@ -22952,8 +23399,10 @@
       <c r="AT188" s="16"/>
       <c r="AU188" s="16"/>
       <c r="AV188" s="16"/>
-    </row>
-    <row r="189" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ188" s="67"/>
+      <c r="BA188" s="67"/>
+    </row>
+    <row r="189" spans="1:53" ht="13" customHeight="1">
       <c r="A189" s="40" t="s">
         <v>215</v>
       </c>
@@ -23019,8 +23468,10 @@
       <c r="AT189" s="16"/>
       <c r="AU189" s="16"/>
       <c r="AV189" s="16"/>
-    </row>
-    <row r="190" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ189" s="67"/>
+      <c r="BA189" s="67"/>
+    </row>
+    <row r="190" spans="1:53" ht="13" customHeight="1">
       <c r="A190" s="40" t="s">
         <v>215</v>
       </c>
@@ -23104,14 +23555,16 @@
       <c r="AV190" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="AW190" s="17" t="s">
+      <c r="AW190" s="66" t="s">
         <v>2413</v>
       </c>
-      <c r="AX190" s="17" t="s">
+      <c r="AX190" s="66" t="s">
         <v>2414</v>
       </c>
-    </row>
-    <row r="191" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ190" s="67"/>
+      <c r="BA190" s="67"/>
+    </row>
+    <row r="191" spans="1:53" ht="13" customHeight="1">
       <c r="A191" s="40" t="s">
         <v>215</v>
       </c>
@@ -23195,8 +23648,10 @@
       <c r="AV191" s="16" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="192" spans="1:50" ht="13" customHeight="1">
+      <c r="AZ191" s="67"/>
+      <c r="BA191" s="67"/>
+    </row>
+    <row r="192" spans="1:53" ht="13" customHeight="1">
       <c r="A192" s="40" t="s">
         <v>215</v>
       </c>
@@ -23280,8 +23735,10 @@
       <c r="AV192" s="10" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="193" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ192" s="67"/>
+      <c r="BA192" s="67"/>
+    </row>
+    <row r="193" spans="1:53" ht="13" customHeight="1">
       <c r="A193" s="40" t="s">
         <v>215</v>
       </c>
@@ -23365,8 +23822,10 @@
       <c r="AV193" s="16" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="194" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ193" s="67"/>
+      <c r="BA193" s="67"/>
+    </row>
+    <row r="194" spans="1:53" ht="13" customHeight="1">
       <c r="A194" s="40" t="s">
         <v>215</v>
       </c>
@@ -23432,8 +23891,10 @@
       <c r="AT194" s="16"/>
       <c r="AU194" s="16"/>
       <c r="AV194" s="16"/>
-    </row>
-    <row r="195" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ194" s="67"/>
+      <c r="BA194" s="67"/>
+    </row>
+    <row r="195" spans="1:53" ht="13" customHeight="1">
       <c r="A195" s="40" t="s">
         <v>215</v>
       </c>
@@ -23517,8 +23978,10 @@
       <c r="AV195" s="16" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="196" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ195" s="67"/>
+      <c r="BA195" s="67"/>
+    </row>
+    <row r="196" spans="1:53" ht="13" customHeight="1">
       <c r="A196" s="40" t="s">
         <v>215</v>
       </c>
@@ -23602,8 +24065,10 @@
       <c r="AV196" s="16" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="197" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ196" s="67"/>
+      <c r="BA196" s="67"/>
+    </row>
+    <row r="197" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A197" s="40" t="s">
         <v>215</v>
       </c>
@@ -23695,8 +24160,10 @@
       <c r="AV197" s="10" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="198" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ197" s="67"/>
+      <c r="BA197" s="67"/>
+    </row>
+    <row r="198" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A198" s="40" t="s">
         <v>215</v>
       </c>
@@ -23788,8 +24255,10 @@
       <c r="AV198" s="10" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="199" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ198" s="67"/>
+      <c r="BA198" s="67"/>
+    </row>
+    <row r="199" spans="1:53" ht="13" customHeight="1">
       <c r="A199" s="40" t="s">
         <v>215</v>
       </c>
@@ -23873,8 +24342,10 @@
       <c r="AV199" s="16" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="200" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ199" s="67"/>
+      <c r="BA199" s="67"/>
+    </row>
+    <row r="200" spans="1:53" ht="13" customHeight="1">
       <c r="A200" s="40" t="s">
         <v>215</v>
       </c>
@@ -23940,8 +24411,10 @@
       <c r="AT200" s="16"/>
       <c r="AU200" s="16"/>
       <c r="AV200" s="16"/>
-    </row>
-    <row r="201" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ200" s="67"/>
+      <c r="BA200" s="67"/>
+    </row>
+    <row r="201" spans="1:53" ht="13" customHeight="1">
       <c r="A201" s="40" t="s">
         <v>215</v>
       </c>
@@ -24007,8 +24480,10 @@
       <c r="AT201" s="16"/>
       <c r="AU201" s="16"/>
       <c r="AV201" s="16"/>
-    </row>
-    <row r="202" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ201" s="67"/>
+      <c r="BA201" s="67"/>
+    </row>
+    <row r="202" spans="1:53" ht="13" customHeight="1">
       <c r="A202" s="40" t="s">
         <v>215</v>
       </c>
@@ -24074,8 +24549,10 @@
       <c r="AT202" s="16"/>
       <c r="AU202" s="16"/>
       <c r="AV202" s="16"/>
-    </row>
-    <row r="203" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ202" s="67"/>
+      <c r="BA202" s="67"/>
+    </row>
+    <row r="203" spans="1:53" ht="13" customHeight="1">
       <c r="A203" s="40" t="s">
         <v>215</v>
       </c>
@@ -24141,8 +24618,10 @@
       <c r="AT203" s="16"/>
       <c r="AU203" s="16"/>
       <c r="AV203" s="16"/>
-    </row>
-    <row r="204" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ203" s="67"/>
+      <c r="BA203" s="67"/>
+    </row>
+    <row r="204" spans="1:53" ht="13" customHeight="1">
       <c r="A204" s="40" t="s">
         <v>215</v>
       </c>
@@ -24208,8 +24687,10 @@
       <c r="AT204" s="16"/>
       <c r="AU204" s="16"/>
       <c r="AV204" s="16"/>
-    </row>
-    <row r="205" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ204" s="67"/>
+      <c r="BA204" s="67"/>
+    </row>
+    <row r="205" spans="1:53" ht="13" customHeight="1">
       <c r="A205" s="40" t="s">
         <v>16</v>
       </c>
@@ -24250,8 +24731,10 @@
       <c r="AT205" s="16"/>
       <c r="AU205" s="16"/>
       <c r="AV205" s="16"/>
-    </row>
-    <row r="206" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ205" s="67"/>
+      <c r="BA205" s="67"/>
+    </row>
+    <row r="206" spans="1:53" ht="13" customHeight="1">
       <c r="A206" s="40" t="s">
         <v>240</v>
       </c>
@@ -24362,8 +24845,10 @@
       <c r="AT206" s="16"/>
       <c r="AU206" s="16"/>
       <c r="AV206" s="16"/>
-    </row>
-    <row r="207" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ206" s="67"/>
+      <c r="BA206" s="67"/>
+    </row>
+    <row r="207" spans="1:53" ht="13" customHeight="1">
       <c r="A207" s="40" t="s">
         <v>101</v>
       </c>
@@ -24428,8 +24913,10 @@
       <c r="AT207" s="16"/>
       <c r="AU207" s="16"/>
       <c r="AV207" s="16"/>
-    </row>
-    <row r="208" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ207" s="67"/>
+      <c r="BA207" s="67"/>
+    </row>
+    <row r="208" spans="1:53" ht="13" customHeight="1">
       <c r="A208" s="40" t="s">
         <v>27</v>
       </c>
@@ -24466,8 +24953,10 @@
       <c r="AT208" s="16"/>
       <c r="AU208" s="16"/>
       <c r="AV208" s="16"/>
-    </row>
-    <row r="209" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ208" s="67"/>
+      <c r="BA208" s="67"/>
+    </row>
+    <row r="209" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A209" s="40" t="s">
         <v>1029</v>
       </c>
@@ -24577,8 +25066,10 @@
       <c r="AV209" s="10" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="210" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ209" s="67"/>
+      <c r="BA209" s="67"/>
+    </row>
+    <row r="210" spans="1:53" ht="13" customHeight="1">
       <c r="A210" s="40" t="s">
         <v>215</v>
       </c>
@@ -24644,8 +25135,10 @@
       <c r="AT210" s="16"/>
       <c r="AU210" s="16"/>
       <c r="AV210" s="16"/>
-    </row>
-    <row r="211" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ210" s="67"/>
+      <c r="BA210" s="67"/>
+    </row>
+    <row r="211" spans="1:53" ht="13" customHeight="1">
       <c r="A211" s="40" t="s">
         <v>215</v>
       </c>
@@ -24711,8 +25204,10 @@
       <c r="AT211" s="16"/>
       <c r="AU211" s="16"/>
       <c r="AV211" s="16"/>
-    </row>
-    <row r="212" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ211" s="67"/>
+      <c r="BA211" s="67"/>
+    </row>
+    <row r="212" spans="1:53" ht="13" customHeight="1">
       <c r="A212" s="40" t="s">
         <v>215</v>
       </c>
@@ -24778,8 +25273,10 @@
       <c r="AT212" s="16"/>
       <c r="AU212" s="16"/>
       <c r="AV212" s="16"/>
-    </row>
-    <row r="213" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ212" s="67"/>
+      <c r="BA212" s="67"/>
+    </row>
+    <row r="213" spans="1:53" ht="13" customHeight="1">
       <c r="A213" s="40" t="s">
         <v>215</v>
       </c>
@@ -24845,8 +25342,10 @@
       <c r="AT213" s="16"/>
       <c r="AU213" s="16"/>
       <c r="AV213" s="16"/>
-    </row>
-    <row r="214" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ213" s="67"/>
+      <c r="BA213" s="67"/>
+    </row>
+    <row r="214" spans="1:53" ht="13" customHeight="1">
       <c r="A214" s="40" t="s">
         <v>215</v>
       </c>
@@ -24912,8 +25411,10 @@
       <c r="AT214" s="16"/>
       <c r="AU214" s="16"/>
       <c r="AV214" s="16"/>
-    </row>
-    <row r="215" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ214" s="67"/>
+      <c r="BA214" s="67"/>
+    </row>
+    <row r="215" spans="1:53" ht="13" customHeight="1">
       <c r="A215" s="40" t="s">
         <v>215</v>
       </c>
@@ -24979,8 +25480,10 @@
       <c r="AT215" s="16"/>
       <c r="AU215" s="16"/>
       <c r="AV215" s="16"/>
-    </row>
-    <row r="216" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ215" s="67"/>
+      <c r="BA215" s="67"/>
+    </row>
+    <row r="216" spans="1:53" ht="13" customHeight="1">
       <c r="A216" s="40" t="s">
         <v>16</v>
       </c>
@@ -25021,8 +25524,10 @@
       <c r="AT216" s="16"/>
       <c r="AU216" s="16"/>
       <c r="AV216" s="16"/>
-    </row>
-    <row r="217" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ216" s="67"/>
+      <c r="BA216" s="67"/>
+    </row>
+    <row r="217" spans="1:53" ht="13" customHeight="1">
       <c r="A217" s="40" t="s">
         <v>256</v>
       </c>
@@ -25113,8 +25618,10 @@
       <c r="AT217" s="16"/>
       <c r="AU217" s="16"/>
       <c r="AV217" s="16"/>
-    </row>
-    <row r="218" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ217" s="67"/>
+      <c r="BA217" s="67"/>
+    </row>
+    <row r="218" spans="1:53" ht="13" customHeight="1">
       <c r="A218" s="40" t="s">
         <v>101</v>
       </c>
@@ -25179,8 +25686,10 @@
       <c r="AT218" s="16"/>
       <c r="AU218" s="16"/>
       <c r="AV218" s="16"/>
-    </row>
-    <row r="219" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ218" s="67"/>
+      <c r="BA218" s="67"/>
+    </row>
+    <row r="219" spans="1:53" ht="13" customHeight="1">
       <c r="A219" s="40" t="s">
         <v>27</v>
       </c>
@@ -25217,8 +25726,10 @@
       <c r="AT219" s="16"/>
       <c r="AU219" s="16"/>
       <c r="AV219" s="16"/>
-    </row>
-    <row r="220" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ219" s="67"/>
+      <c r="BA219" s="67"/>
+    </row>
+    <row r="220" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A220" s="40" t="s">
         <v>1029</v>
       </c>
@@ -25328,8 +25839,10 @@
       <c r="AV220" s="10" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="221" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ220" s="67"/>
+      <c r="BA220" s="67"/>
+    </row>
+    <row r="221" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A221" s="40" t="s">
         <v>14</v>
       </c>
@@ -25383,8 +25896,10 @@
       <c r="AT221" s="10"/>
       <c r="AU221" s="10"/>
       <c r="AV221" s="10"/>
-    </row>
-    <row r="222" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ221" s="67"/>
+      <c r="BA221" s="67"/>
+    </row>
+    <row r="222" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A222" s="40" t="s">
         <v>14</v>
       </c>
@@ -25438,8 +25953,10 @@
       <c r="AT222" s="10"/>
       <c r="AU222" s="10"/>
       <c r="AV222" s="10"/>
-    </row>
-    <row r="223" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ222" s="67"/>
+      <c r="BA222" s="67"/>
+    </row>
+    <row r="223" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A223" s="40" t="s">
         <v>14</v>
       </c>
@@ -25493,8 +26010,10 @@
       <c r="AT223" s="10"/>
       <c r="AU223" s="10"/>
       <c r="AV223" s="10"/>
-    </row>
-    <row r="224" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ223" s="67"/>
+      <c r="BA223" s="67"/>
+    </row>
+    <row r="224" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A224" s="40" t="s">
         <v>165</v>
       </c>
@@ -25568,8 +26087,10 @@
       <c r="AT224" s="10"/>
       <c r="AU224" s="10"/>
       <c r="AV224" s="10"/>
-    </row>
-    <row r="225" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ224" s="67"/>
+      <c r="BA224" s="67"/>
+    </row>
+    <row r="225" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A225" s="40" t="s">
         <v>831</v>
       </c>
@@ -25643,8 +26164,10 @@
       <c r="AT225" s="10"/>
       <c r="AU225" s="10"/>
       <c r="AV225" s="10"/>
-    </row>
-    <row r="226" spans="1:48" s="16" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ225" s="67"/>
+      <c r="BA225" s="67"/>
+    </row>
+    <row r="226" spans="1:53" s="16" customFormat="1" ht="13" customHeight="1">
       <c r="A226" s="40" t="s">
         <v>14</v>
       </c>
@@ -25671,8 +26194,10 @@
       <c r="AD226" s="40"/>
       <c r="AE226" s="40"/>
       <c r="AF226" s="40"/>
-    </row>
-    <row r="227" spans="1:48" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ226" s="67"/>
+      <c r="BA226" s="67"/>
+    </row>
+    <row r="227" spans="1:53" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A227" s="53" t="s">
         <v>16</v>
       </c>
@@ -25685,8 +26210,10 @@
       <c r="J227" s="53" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="228" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ227" s="67"/>
+      <c r="BA227" s="67"/>
+    </row>
+    <row r="228" spans="1:53" ht="13" customHeight="1">
       <c r="A228" s="40" t="s">
         <v>20</v>
       </c>
@@ -25775,8 +26302,10 @@
       <c r="AT228" s="16"/>
       <c r="AU228" s="16"/>
       <c r="AV228" s="16"/>
-    </row>
-    <row r="229" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ228" s="67"/>
+      <c r="BA228" s="67"/>
+    </row>
+    <row r="229" spans="1:53" ht="13" customHeight="1">
       <c r="A229" s="40" t="s">
         <v>20</v>
       </c>
@@ -25841,8 +26370,10 @@
       <c r="AT229" s="16"/>
       <c r="AU229" s="16"/>
       <c r="AV229" s="16"/>
-    </row>
-    <row r="230" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ229" s="67"/>
+      <c r="BA229" s="67"/>
+    </row>
+    <row r="230" spans="1:53" ht="13" customHeight="1">
       <c r="A230" s="40" t="s">
         <v>20</v>
       </c>
@@ -25907,8 +26438,10 @@
       <c r="AT230" s="16"/>
       <c r="AU230" s="16"/>
       <c r="AV230" s="16"/>
-    </row>
-    <row r="231" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ230" s="67"/>
+      <c r="BA230" s="67"/>
+    </row>
+    <row r="231" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A231" s="64" t="s">
         <v>2284</v>
       </c>
@@ -25938,8 +26471,10 @@
       <c r="AQ231" s="53"/>
       <c r="AR231" s="53"/>
       <c r="AS231" s="53"/>
-    </row>
-    <row r="232" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ231" s="67"/>
+      <c r="BA231" s="67"/>
+    </row>
+    <row r="232" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A232" s="53" t="s">
         <v>118</v>
       </c>
@@ -25975,8 +26510,10 @@
       <c r="AQ232" s="53"/>
       <c r="AR232" s="53"/>
       <c r="AS232" s="53"/>
-    </row>
-    <row r="233" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ232" s="67"/>
+      <c r="BA232" s="67"/>
+    </row>
+    <row r="233" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A233" s="53" t="s">
         <v>14</v>
       </c>
@@ -26001,16 +26538,20 @@
       <c r="AQ233" s="53"/>
       <c r="AR233" s="53"/>
       <c r="AS233" s="53"/>
-    </row>
-    <row r="234" spans="1:48" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ233" s="67"/>
+      <c r="BA233" s="67"/>
+    </row>
+    <row r="234" spans="1:53" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A234" s="53" t="s">
         <v>27</v>
       </c>
       <c r="B234" s="53" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="235" spans="1:48" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ234" s="67"/>
+      <c r="BA234" s="67"/>
+    </row>
+    <row r="235" spans="1:53" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A235" s="53" t="s">
         <v>20</v>
       </c>
@@ -26050,8 +26591,10 @@
       <c r="X235" s="53" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="236" spans="1:48" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ235" s="67"/>
+      <c r="BA235" s="67"/>
+    </row>
+    <row r="236" spans="1:53" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A236" s="53" t="s">
         <v>20</v>
       </c>
@@ -26091,8 +26634,10 @@
       <c r="X236" s="53" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="237" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ236" s="67"/>
+      <c r="BA236" s="67"/>
+    </row>
+    <row r="237" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A237" s="53" t="s">
         <v>16</v>
       </c>
@@ -26120,8 +26665,10 @@
       <c r="AQ237" s="53"/>
       <c r="AR237" s="53"/>
       <c r="AS237" s="53"/>
-    </row>
-    <row r="238" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ237" s="67"/>
+      <c r="BA237" s="67"/>
+    </row>
+    <row r="238" spans="1:53" ht="13" customHeight="1">
       <c r="A238" s="40" t="s">
         <v>20</v>
       </c>
@@ -26225,8 +26772,10 @@
       <c r="AT238" s="16"/>
       <c r="AU238" s="16"/>
       <c r="AV238" s="16"/>
-    </row>
-    <row r="239" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ238" s="67"/>
+      <c r="BA238" s="67"/>
+    </row>
+    <row r="239" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A239" s="64" t="s">
         <v>2284</v>
       </c>
@@ -26256,8 +26805,10 @@
       <c r="AQ239" s="53"/>
       <c r="AR239" s="53"/>
       <c r="AS239" s="53"/>
-    </row>
-    <row r="240" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ239" s="67"/>
+      <c r="BA239" s="67"/>
+    </row>
+    <row r="240" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A240" s="53" t="s">
         <v>118</v>
       </c>
@@ -26293,8 +26844,10 @@
       <c r="AQ240" s="53"/>
       <c r="AR240" s="53"/>
       <c r="AS240" s="53"/>
-    </row>
-    <row r="241" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ240" s="67"/>
+      <c r="BA240" s="67"/>
+    </row>
+    <row r="241" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A241" s="53" t="s">
         <v>14</v>
       </c>
@@ -26319,8 +26872,10 @@
       <c r="AQ241" s="53"/>
       <c r="AR241" s="53"/>
       <c r="AS241" s="53"/>
-    </row>
-    <row r="242" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ241" s="67"/>
+      <c r="BA241" s="67"/>
+    </row>
+    <row r="242" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A242" s="53" t="s">
         <v>27</v>
       </c>
@@ -26344,8 +26899,10 @@
       <c r="AQ242" s="53"/>
       <c r="AR242" s="53"/>
       <c r="AS242" s="53"/>
-    </row>
-    <row r="243" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ242" s="67"/>
+      <c r="BA242" s="67"/>
+    </row>
+    <row r="243" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A243" s="53" t="s">
         <v>20</v>
       </c>
@@ -26375,8 +26932,10 @@
       <c r="AQ243" s="53"/>
       <c r="AR243" s="53"/>
       <c r="AS243" s="53"/>
-    </row>
-    <row r="244" spans="1:48" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ243" s="67"/>
+      <c r="BA243" s="67"/>
+    </row>
+    <row r="244" spans="1:53" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A244" s="53" t="s">
         <v>16</v>
       </c>
@@ -26389,8 +26948,10 @@
       <c r="J244" s="53" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="245" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ244" s="67"/>
+      <c r="BA244" s="67"/>
+    </row>
+    <row r="245" spans="1:53" ht="13" customHeight="1">
       <c r="A245" s="40" t="s">
         <v>20</v>
       </c>
@@ -26479,8 +27040,10 @@
       <c r="AT245" s="16"/>
       <c r="AU245" s="16"/>
       <c r="AV245" s="16"/>
-    </row>
-    <row r="246" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ245" s="67"/>
+      <c r="BA245" s="67"/>
+    </row>
+    <row r="246" spans="1:53" ht="13" customHeight="1">
       <c r="A246" s="40" t="s">
         <v>20</v>
       </c>
@@ -26545,8 +27108,10 @@
       <c r="AT246" s="16"/>
       <c r="AU246" s="16"/>
       <c r="AV246" s="16"/>
-    </row>
-    <row r="247" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ246" s="67"/>
+      <c r="BA246" s="67"/>
+    </row>
+    <row r="247" spans="1:53" ht="13" customHeight="1">
       <c r="A247" s="40" t="s">
         <v>20</v>
       </c>
@@ -26611,8 +27176,10 @@
       <c r="AT247" s="16"/>
       <c r="AU247" s="16"/>
       <c r="AV247" s="16"/>
-    </row>
-    <row r="248" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ247" s="67"/>
+      <c r="BA247" s="67"/>
+    </row>
+    <row r="248" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A248" s="64" t="s">
         <v>2284</v>
       </c>
@@ -26642,8 +27209,10 @@
       <c r="AQ248" s="53"/>
       <c r="AR248" s="53"/>
       <c r="AS248" s="53"/>
-    </row>
-    <row r="249" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ248" s="67"/>
+      <c r="BA248" s="67"/>
+    </row>
+    <row r="249" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A249" s="53" t="s">
         <v>118</v>
       </c>
@@ -26679,8 +27248,10 @@
       <c r="AQ249" s="53"/>
       <c r="AR249" s="53"/>
       <c r="AS249" s="53"/>
-    </row>
-    <row r="250" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ249" s="67"/>
+      <c r="BA249" s="67"/>
+    </row>
+    <row r="250" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A250" s="53" t="s">
         <v>14</v>
       </c>
@@ -26705,16 +27276,20 @@
       <c r="AQ250" s="53"/>
       <c r="AR250" s="53"/>
       <c r="AS250" s="53"/>
-    </row>
-    <row r="251" spans="1:48" s="53" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ250" s="67"/>
+      <c r="BA250" s="67"/>
+    </row>
+    <row r="251" spans="1:53" s="53" customFormat="1" ht="13" customHeight="1">
       <c r="A251" s="53" t="s">
         <v>27</v>
       </c>
       <c r="B251" s="53" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="252" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ251" s="67"/>
+      <c r="BA251" s="67"/>
+    </row>
+    <row r="252" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A252" s="53" t="s">
         <v>20</v>
       </c>
@@ -26744,8 +27319,10 @@
       <c r="AQ252" s="53"/>
       <c r="AR252" s="53"/>
       <c r="AS252" s="53"/>
-    </row>
-    <row r="253" spans="1:48" s="54" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ252" s="67"/>
+      <c r="BA252" s="67"/>
+    </row>
+    <row r="253" spans="1:53" s="54" customFormat="1" ht="13" customHeight="1">
       <c r="A253" s="53" t="s">
         <v>20</v>
       </c>
@@ -26773,8 +27350,10 @@
       <c r="AQ253" s="53"/>
       <c r="AR253" s="53"/>
       <c r="AS253" s="53"/>
-    </row>
-    <row r="254" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ253" s="67"/>
+      <c r="BA253" s="67"/>
+    </row>
+    <row r="254" spans="1:53" ht="13" customHeight="1">
       <c r="A254" s="40" t="s">
         <v>14</v>
       </c>
@@ -26813,8 +27392,10 @@
       <c r="AT254" s="16"/>
       <c r="AU254" s="16"/>
       <c r="AV254" s="16"/>
-    </row>
-    <row r="255" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ254" s="67"/>
+      <c r="BA254" s="67"/>
+    </row>
+    <row r="255" spans="1:53" ht="13" customHeight="1">
       <c r="A255" s="40" t="s">
         <v>14</v>
       </c>
@@ -26853,8 +27434,10 @@
       <c r="AT255" s="16"/>
       <c r="AU255" s="16"/>
       <c r="AV255" s="16"/>
-    </row>
-    <row r="256" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ255" s="67"/>
+      <c r="BA255" s="67"/>
+    </row>
+    <row r="256" spans="1:53" ht="13" customHeight="1">
       <c r="A256" s="40" t="s">
         <v>28</v>
       </c>
@@ -26921,8 +27504,10 @@
       <c r="AT256" s="16"/>
       <c r="AU256" s="16"/>
       <c r="AV256" s="16"/>
-    </row>
-    <row r="257" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ256" s="67"/>
+      <c r="BA256" s="67"/>
+    </row>
+    <row r="257" spans="1:53" ht="13" customHeight="1">
       <c r="A257" s="40" t="s">
         <v>20</v>
       </c>
@@ -27015,8 +27600,10 @@
       <c r="AT257" s="16"/>
       <c r="AU257" s="16"/>
       <c r="AV257" s="16"/>
-    </row>
-    <row r="258" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ257" s="67"/>
+      <c r="BA257" s="67"/>
+    </row>
+    <row r="258" spans="1:53" ht="13" customHeight="1">
       <c r="A258" s="40" t="s">
         <v>269</v>
       </c>
@@ -27082,8 +27669,10 @@
       <c r="AT258" s="16"/>
       <c r="AU258" s="16"/>
       <c r="AV258" s="16"/>
-    </row>
-    <row r="259" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ258" s="67"/>
+      <c r="BA258" s="67"/>
+    </row>
+    <row r="259" spans="1:53" ht="13" customHeight="1">
       <c r="A259" s="40" t="s">
         <v>16</v>
       </c>
@@ -27124,8 +27713,10 @@
       <c r="AT259" s="16"/>
       <c r="AU259" s="16"/>
       <c r="AV259" s="16"/>
-    </row>
-    <row r="260" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ259" s="67"/>
+      <c r="BA259" s="67"/>
+    </row>
+    <row r="260" spans="1:53" ht="13" customHeight="1">
       <c r="A260" s="40" t="s">
         <v>14</v>
       </c>
@@ -27164,8 +27755,10 @@
       <c r="AT260" s="16"/>
       <c r="AU260" s="16"/>
       <c r="AV260" s="16"/>
-    </row>
-    <row r="261" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ260" s="67"/>
+      <c r="BA260" s="67"/>
+    </row>
+    <row r="261" spans="1:53" ht="13" customHeight="1">
       <c r="A261" s="40" t="s">
         <v>14</v>
       </c>
@@ -27204,8 +27797,10 @@
       <c r="AT261" s="16"/>
       <c r="AU261" s="16"/>
       <c r="AV261" s="16"/>
-    </row>
-    <row r="262" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ261" s="67"/>
+      <c r="BA261" s="67"/>
+    </row>
+    <row r="262" spans="1:53" ht="13" customHeight="1">
       <c r="A262" s="40" t="s">
         <v>14</v>
       </c>
@@ -27244,8 +27839,10 @@
       <c r="AT262" s="16"/>
       <c r="AU262" s="16"/>
       <c r="AV262" s="16"/>
-    </row>
-    <row r="263" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ262" s="67"/>
+      <c r="BA262" s="67"/>
+    </row>
+    <row r="263" spans="1:53" ht="13" customHeight="1">
       <c r="A263" s="40" t="s">
         <v>275</v>
       </c>
@@ -27335,8 +27932,10 @@
       <c r="AT263" s="16"/>
       <c r="AU263" s="16"/>
       <c r="AV263" s="16"/>
-    </row>
-    <row r="264" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ263" s="67"/>
+      <c r="BA263" s="67"/>
+    </row>
+    <row r="264" spans="1:53" ht="13" customHeight="1">
       <c r="A264" s="40" t="s">
         <v>101</v>
       </c>
@@ -27401,8 +28000,10 @@
       <c r="AT264" s="16"/>
       <c r="AU264" s="16"/>
       <c r="AV264" s="16"/>
-    </row>
-    <row r="265" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ264" s="67"/>
+      <c r="BA264" s="67"/>
+    </row>
+    <row r="265" spans="1:53" ht="13" customHeight="1">
       <c r="A265" s="40" t="s">
         <v>27</v>
       </c>
@@ -27439,8 +28040,10 @@
       <c r="AT265" s="16"/>
       <c r="AU265" s="16"/>
       <c r="AV265" s="16"/>
-    </row>
-    <row r="266" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ265" s="67"/>
+      <c r="BA265" s="67"/>
+    </row>
+    <row r="266" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A266" s="40" t="s">
         <v>275</v>
       </c>
@@ -27532,8 +28135,10 @@
       <c r="AT266" s="10"/>
       <c r="AU266" s="10"/>
       <c r="AV266" s="10"/>
-    </row>
-    <row r="267" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ266" s="67"/>
+      <c r="BA266" s="67"/>
+    </row>
+    <row r="267" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A267" s="40" t="s">
         <v>275</v>
       </c>
@@ -27625,8 +28230,10 @@
       <c r="AT267" s="10"/>
       <c r="AU267" s="10"/>
       <c r="AV267" s="10"/>
-    </row>
-    <row r="268" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ267" s="67"/>
+      <c r="BA267" s="67"/>
+    </row>
+    <row r="268" spans="1:53" ht="13" customHeight="1">
       <c r="A268" s="40" t="s">
         <v>215</v>
       </c>
@@ -27692,8 +28299,10 @@
       <c r="AT268" s="16"/>
       <c r="AU268" s="16"/>
       <c r="AV268" s="16"/>
-    </row>
-    <row r="269" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ268" s="67"/>
+      <c r="BA268" s="67"/>
+    </row>
+    <row r="269" spans="1:53" ht="13" customHeight="1">
       <c r="A269" s="40" t="s">
         <v>215</v>
       </c>
@@ -27759,8 +28368,10 @@
       <c r="AT269" s="16"/>
       <c r="AU269" s="16"/>
       <c r="AV269" s="16"/>
-    </row>
-    <row r="270" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ269" s="67"/>
+      <c r="BA269" s="67"/>
+    </row>
+    <row r="270" spans="1:53" ht="13" customHeight="1">
       <c r="A270" s="40" t="s">
         <v>215</v>
       </c>
@@ -27826,8 +28437,10 @@
       <c r="AT270" s="16"/>
       <c r="AU270" s="16"/>
       <c r="AV270" s="16"/>
-    </row>
-    <row r="271" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ270" s="67"/>
+      <c r="BA270" s="67"/>
+    </row>
+    <row r="271" spans="1:53" ht="13" customHeight="1">
       <c r="A271" s="40" t="s">
         <v>215</v>
       </c>
@@ -27893,8 +28506,10 @@
       <c r="AT271" s="16"/>
       <c r="AU271" s="16"/>
       <c r="AV271" s="16"/>
-    </row>
-    <row r="272" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ271" s="67"/>
+      <c r="BA271" s="67"/>
+    </row>
+    <row r="272" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A272" s="40" t="s">
         <v>215</v>
       </c>
@@ -27968,8 +28583,10 @@
       <c r="AT272" s="10"/>
       <c r="AU272" s="10"/>
       <c r="AV272" s="10"/>
-    </row>
-    <row r="273" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ272" s="67"/>
+      <c r="BA272" s="67"/>
+    </row>
+    <row r="273" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A273" s="40" t="s">
         <v>215</v>
       </c>
@@ -28043,8 +28660,10 @@
       <c r="AT273" s="10"/>
       <c r="AU273" s="10"/>
       <c r="AV273" s="10"/>
-    </row>
-    <row r="274" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ273" s="67"/>
+      <c r="BA273" s="67"/>
+    </row>
+    <row r="274" spans="1:53" ht="13" customHeight="1">
       <c r="A274" s="40" t="s">
         <v>283</v>
       </c>
@@ -28110,8 +28729,10 @@
       <c r="AT274" s="16"/>
       <c r="AU274" s="16"/>
       <c r="AV274" s="16"/>
-    </row>
-    <row r="275" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ274" s="67"/>
+      <c r="BA274" s="67"/>
+    </row>
+    <row r="275" spans="1:53" ht="13" customHeight="1">
       <c r="A275" s="40" t="s">
         <v>286</v>
       </c>
@@ -28177,8 +28798,10 @@
       <c r="AT275" s="16"/>
       <c r="AU275" s="16"/>
       <c r="AV275" s="16"/>
-    </row>
-    <row r="276" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ275" s="67"/>
+      <c r="BA275" s="67"/>
+    </row>
+    <row r="276" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A276" s="40" t="s">
         <v>286</v>
       </c>
@@ -28252,8 +28875,10 @@
       <c r="AT276" s="10"/>
       <c r="AU276" s="10"/>
       <c r="AV276" s="10"/>
-    </row>
-    <row r="277" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ276" s="67"/>
+      <c r="BA276" s="67"/>
+    </row>
+    <row r="277" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A277" s="40" t="s">
         <v>286</v>
       </c>
@@ -28327,8 +28952,10 @@
       <c r="AT277" s="10"/>
       <c r="AU277" s="10"/>
       <c r="AV277" s="10"/>
-    </row>
-    <row r="278" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ277" s="67"/>
+      <c r="BA277" s="67"/>
+    </row>
+    <row r="278" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A278" s="40" t="s">
         <v>14</v>
       </c>
@@ -28382,8 +29009,10 @@
       <c r="AT278" s="10"/>
       <c r="AU278" s="10"/>
       <c r="AV278" s="10"/>
-    </row>
-    <row r="279" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ278" s="67"/>
+      <c r="BA278" s="67"/>
+    </row>
+    <row r="279" spans="1:53" ht="13" customHeight="1">
       <c r="A279" s="40" t="s">
         <v>165</v>
       </c>
@@ -28449,8 +29078,10 @@
       <c r="AT279" s="16"/>
       <c r="AU279" s="16"/>
       <c r="AV279" s="16"/>
-    </row>
-    <row r="280" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ279" s="67"/>
+      <c r="BA279" s="67"/>
+    </row>
+    <row r="280" spans="1:53" ht="13" customHeight="1">
       <c r="A280" s="40" t="s">
         <v>165</v>
       </c>
@@ -28516,8 +29147,10 @@
       <c r="AT280" s="16"/>
       <c r="AU280" s="16"/>
       <c r="AV280" s="16"/>
-    </row>
-    <row r="281" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ280" s="70"/>
+      <c r="BA280" s="70"/>
+    </row>
+    <row r="281" spans="1:53" ht="13" customHeight="1">
       <c r="A281" s="40" t="s">
         <v>215</v>
       </c>
@@ -28583,8 +29216,10 @@
       <c r="AT281" s="16"/>
       <c r="AU281" s="16"/>
       <c r="AV281" s="16"/>
-    </row>
-    <row r="282" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ281" s="70"/>
+      <c r="BA281" s="70"/>
+    </row>
+    <row r="282" spans="1:53" ht="13" customHeight="1">
       <c r="A282" s="40" t="s">
         <v>291</v>
       </c>
@@ -28697,8 +29332,10 @@
       <c r="AT282" s="16"/>
       <c r="AU282" s="16"/>
       <c r="AV282" s="16"/>
-    </row>
-    <row r="283" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ282" s="70"/>
+      <c r="BA282" s="70"/>
+    </row>
+    <row r="283" spans="1:53" ht="13" customHeight="1">
       <c r="A283" s="40" t="s">
         <v>215</v>
       </c>
@@ -28764,8 +29401,10 @@
       <c r="AT283" s="16"/>
       <c r="AU283" s="16"/>
       <c r="AV283" s="16"/>
-    </row>
-    <row r="284" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ283" s="70"/>
+      <c r="BA283" s="70"/>
+    </row>
+    <row r="284" spans="1:53" ht="13" customHeight="1">
       <c r="A284" s="40" t="s">
         <v>14</v>
       </c>
@@ -28804,8 +29443,10 @@
       <c r="AT284" s="16"/>
       <c r="AU284" s="16"/>
       <c r="AV284" s="16"/>
-    </row>
-    <row r="285" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ284" s="70"/>
+      <c r="BA284" s="70"/>
+    </row>
+    <row r="285" spans="1:53" ht="13" customHeight="1">
       <c r="A285" s="40" t="s">
         <v>14</v>
       </c>
@@ -28844,8 +29485,10 @@
       <c r="AT285" s="16"/>
       <c r="AU285" s="16"/>
       <c r="AV285" s="16"/>
-    </row>
-    <row r="286" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ285" s="70"/>
+      <c r="BA285" s="70"/>
+    </row>
+    <row r="286" spans="1:53" ht="13" customHeight="1">
       <c r="A286" s="40" t="s">
         <v>45</v>
       </c>
@@ -28957,8 +29600,10 @@
       <c r="AT286" s="16"/>
       <c r="AU286" s="16"/>
       <c r="AV286" s="16"/>
-    </row>
-    <row r="287" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ286" s="67"/>
+      <c r="BA286" s="67"/>
+    </row>
+    <row r="287" spans="1:53" ht="13" customHeight="1">
       <c r="A287" s="40" t="s">
         <v>28</v>
       </c>
@@ -29070,8 +29715,10 @@
       <c r="AT287" s="16"/>
       <c r="AU287" s="16"/>
       <c r="AV287" s="16"/>
-    </row>
-    <row r="288" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ287" s="67"/>
+      <c r="BA287" s="67"/>
+    </row>
+    <row r="288" spans="1:53" ht="13" customHeight="1">
       <c r="A288" s="40" t="s">
         <v>45</v>
       </c>
@@ -29183,8 +29830,10 @@
       <c r="AT288" s="16"/>
       <c r="AU288" s="16"/>
       <c r="AV288" s="16"/>
-    </row>
-    <row r="289" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ288" s="67"/>
+      <c r="BA288" s="67"/>
+    </row>
+    <row r="289" spans="1:53" ht="13" customHeight="1">
       <c r="A289" s="40" t="s">
         <v>28</v>
       </c>
@@ -29276,8 +29925,10 @@
       <c r="AT289" s="16"/>
       <c r="AU289" s="16"/>
       <c r="AV289" s="16"/>
-    </row>
-    <row r="290" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ289" s="67"/>
+      <c r="BA289" s="67"/>
+    </row>
+    <row r="290" spans="1:53" ht="13" customHeight="1">
       <c r="A290" s="40" t="s">
         <v>16</v>
       </c>
@@ -29318,8 +29969,10 @@
       <c r="AT290" s="16"/>
       <c r="AU290" s="16"/>
       <c r="AV290" s="16"/>
-    </row>
-    <row r="291" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ290" s="67"/>
+      <c r="BA290" s="67"/>
+    </row>
+    <row r="291" spans="1:53" ht="13" customHeight="1">
       <c r="A291" s="40" t="s">
         <v>311</v>
       </c>
@@ -29430,8 +30083,10 @@
       <c r="AT291" s="16"/>
       <c r="AU291" s="16"/>
       <c r="AV291" s="16"/>
-    </row>
-    <row r="292" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ291" s="67"/>
+      <c r="BA291" s="67"/>
+    </row>
+    <row r="292" spans="1:53" ht="13" customHeight="1">
       <c r="A292" s="40" t="s">
         <v>101</v>
       </c>
@@ -29496,8 +30151,10 @@
       <c r="AT292" s="16"/>
       <c r="AU292" s="16"/>
       <c r="AV292" s="16"/>
-    </row>
-    <row r="293" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ292" s="67"/>
+      <c r="BA292" s="67"/>
+    </row>
+    <row r="293" spans="1:53" ht="13" customHeight="1">
       <c r="A293" s="40" t="s">
         <v>27</v>
       </c>
@@ -29534,8 +30191,10 @@
       <c r="AT293" s="16"/>
       <c r="AU293" s="16"/>
       <c r="AV293" s="16"/>
-    </row>
-    <row r="294" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ293" s="67"/>
+      <c r="BA293" s="67"/>
+    </row>
+    <row r="294" spans="1:53" ht="13" customHeight="1">
       <c r="A294" s="40" t="s">
         <v>20</v>
       </c>
@@ -29602,8 +30261,10 @@
       <c r="AT294" s="16"/>
       <c r="AU294" s="16"/>
       <c r="AV294" s="16"/>
-    </row>
-    <row r="295" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ294" s="67"/>
+      <c r="BA294" s="67"/>
+    </row>
+    <row r="295" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A295" s="40" t="s">
         <v>1029</v>
       </c>
@@ -29713,8 +30374,10 @@
       <c r="AV295" s="10" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="296" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ295" s="67"/>
+      <c r="BA295" s="67"/>
+    </row>
+    <row r="296" spans="1:53" ht="13" customHeight="1">
       <c r="A296" s="40" t="s">
         <v>16</v>
       </c>
@@ -29754,8 +30417,10 @@
       <c r="AT296" s="16"/>
       <c r="AU296" s="16"/>
       <c r="AV296" s="16"/>
-    </row>
-    <row r="297" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ296" s="67"/>
+      <c r="BA296" s="67"/>
+    </row>
+    <row r="297" spans="1:53" ht="13" customHeight="1">
       <c r="A297" s="40" t="s">
         <v>20</v>
       </c>
@@ -29820,8 +30485,10 @@
       <c r="AT297" s="16"/>
       <c r="AU297" s="16"/>
       <c r="AV297" s="16"/>
-    </row>
-    <row r="298" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ297" s="67"/>
+      <c r="BA297" s="67"/>
+    </row>
+    <row r="298" spans="1:53" ht="13" customHeight="1">
       <c r="A298" s="40" t="s">
         <v>20</v>
       </c>
@@ -29886,8 +30553,10 @@
       <c r="AT298" s="16"/>
       <c r="AU298" s="16"/>
       <c r="AV298" s="16"/>
-    </row>
-    <row r="299" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ298" s="67"/>
+      <c r="BA298" s="67"/>
+    </row>
+    <row r="299" spans="1:53" ht="13" customHeight="1">
       <c r="A299" s="40" t="s">
         <v>20</v>
       </c>
@@ -29952,8 +30621,10 @@
       <c r="AT299" s="16"/>
       <c r="AU299" s="16"/>
       <c r="AV299" s="16"/>
-    </row>
-    <row r="300" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ299" s="67"/>
+      <c r="BA299" s="67"/>
+    </row>
+    <row r="300" spans="1:53" ht="13" customHeight="1">
       <c r="A300" s="40" t="s">
         <v>20</v>
       </c>
@@ -30018,8 +30689,10 @@
       <c r="AT300" s="16"/>
       <c r="AU300" s="16"/>
       <c r="AV300" s="16"/>
-    </row>
-    <row r="301" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ300" s="67"/>
+      <c r="BA300" s="67"/>
+    </row>
+    <row r="301" spans="1:53" ht="13" customHeight="1">
       <c r="A301" s="40" t="s">
         <v>318</v>
       </c>
@@ -30129,8 +30802,10 @@
       <c r="AT301" s="16"/>
       <c r="AU301" s="16"/>
       <c r="AV301" s="16"/>
-    </row>
-    <row r="302" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ301" s="67"/>
+      <c r="BA301" s="67"/>
+    </row>
+    <row r="302" spans="1:53" ht="13" customHeight="1">
       <c r="A302" s="40" t="s">
         <v>101</v>
       </c>
@@ -30194,8 +30869,10 @@
       <c r="AT302" s="16"/>
       <c r="AU302" s="16"/>
       <c r="AV302" s="16"/>
-    </row>
-    <row r="303" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ302" s="67"/>
+      <c r="BA302" s="67"/>
+    </row>
+    <row r="303" spans="1:53" ht="13" customHeight="1">
       <c r="A303" s="40" t="s">
         <v>27</v>
       </c>
@@ -30231,8 +30908,10 @@
       <c r="AT303" s="16"/>
       <c r="AU303" s="16"/>
       <c r="AV303" s="16"/>
-    </row>
-    <row r="304" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ303" s="67"/>
+      <c r="BA303" s="67"/>
+    </row>
+    <row r="304" spans="1:53" ht="13" customHeight="1">
       <c r="A304" s="40" t="s">
         <v>831</v>
       </c>
@@ -30298,8 +30977,10 @@
       <c r="AT304" s="16"/>
       <c r="AU304" s="16"/>
       <c r="AV304" s="16"/>
-    </row>
-    <row r="305" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ304" s="67"/>
+      <c r="BA304" s="67"/>
+    </row>
+    <row r="305" spans="1:53" ht="13" customHeight="1">
       <c r="A305" s="40" t="s">
         <v>215</v>
       </c>
@@ -30366,8 +31047,10 @@
       <c r="AT305" s="16"/>
       <c r="AU305" s="16"/>
       <c r="AV305" s="16"/>
-    </row>
-    <row r="306" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ305" s="67"/>
+      <c r="BA305" s="67"/>
+    </row>
+    <row r="306" spans="1:53" ht="13" customHeight="1">
       <c r="A306" s="40" t="s">
         <v>215</v>
       </c>
@@ -30460,8 +31143,10 @@
       <c r="AT306" s="16"/>
       <c r="AU306" s="16"/>
       <c r="AV306" s="16"/>
-    </row>
-    <row r="307" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ306" s="67"/>
+      <c r="BA306" s="67"/>
+    </row>
+    <row r="307" spans="1:53" ht="13" customHeight="1">
       <c r="A307" s="40" t="s">
         <v>215</v>
       </c>
@@ -30554,8 +31239,10 @@
       <c r="AT307" s="16"/>
       <c r="AU307" s="16"/>
       <c r="AV307" s="16"/>
-    </row>
-    <row r="308" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ307" s="67"/>
+      <c r="BA307" s="67"/>
+    </row>
+    <row r="308" spans="1:53" ht="13" customHeight="1">
       <c r="A308" s="40" t="s">
         <v>215</v>
       </c>
@@ -30621,8 +31308,10 @@
       <c r="AT308" s="16"/>
       <c r="AU308" s="16"/>
       <c r="AV308" s="16"/>
-    </row>
-    <row r="309" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ308" s="67"/>
+      <c r="BA308" s="67"/>
+    </row>
+    <row r="309" spans="1:53" ht="13" customHeight="1">
       <c r="A309" s="40" t="s">
         <v>16</v>
       </c>
@@ -30661,8 +31350,10 @@
       <c r="AT309" s="16"/>
       <c r="AU309" s="16"/>
       <c r="AV309" s="16"/>
-    </row>
-    <row r="310" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ309" s="67"/>
+      <c r="BA309" s="67"/>
+    </row>
+    <row r="310" spans="1:53" ht="13" customHeight="1">
       <c r="A310" s="40" t="s">
         <v>20</v>
       </c>
@@ -30723,8 +31414,10 @@
       <c r="AT310" s="16"/>
       <c r="AU310" s="16"/>
       <c r="AV310" s="16"/>
-    </row>
-    <row r="311" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ310" s="67"/>
+      <c r="BA310" s="67"/>
+    </row>
+    <row r="311" spans="1:53" ht="13" customHeight="1">
       <c r="A311" s="40" t="s">
         <v>215</v>
       </c>
@@ -30761,8 +31454,10 @@
       <c r="AT311" s="16"/>
       <c r="AU311" s="16"/>
       <c r="AV311" s="16"/>
-    </row>
-    <row r="312" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ311" s="67"/>
+      <c r="BA311" s="67"/>
+    </row>
+    <row r="312" spans="1:53" ht="13" customHeight="1">
       <c r="A312" s="40" t="s">
         <v>215</v>
       </c>
@@ -30827,8 +31522,10 @@
       <c r="AT312" s="16"/>
       <c r="AU312" s="16"/>
       <c r="AV312" s="16"/>
-    </row>
-    <row r="313" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ312" s="67"/>
+      <c r="BA312" s="67"/>
+    </row>
+    <row r="313" spans="1:53" ht="13" customHeight="1">
       <c r="A313" s="40" t="s">
         <v>215</v>
       </c>
@@ -30893,8 +31590,10 @@
       <c r="AT313" s="16"/>
       <c r="AU313" s="16"/>
       <c r="AV313" s="16"/>
-    </row>
-    <row r="314" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ313" s="67"/>
+      <c r="BA313" s="67"/>
+    </row>
+    <row r="314" spans="1:53" ht="13" customHeight="1">
       <c r="A314" s="40" t="s">
         <v>215</v>
       </c>
@@ -30959,8 +31658,10 @@
       <c r="AT314" s="16"/>
       <c r="AU314" s="16"/>
       <c r="AV314" s="16"/>
-    </row>
-    <row r="315" spans="1:48" s="12" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ314" s="67"/>
+      <c r="BA314" s="67"/>
+    </row>
+    <row r="315" spans="1:53" s="12" customFormat="1" ht="13" customHeight="1">
       <c r="A315" s="40" t="s">
         <v>215</v>
       </c>
@@ -31034,8 +31735,10 @@
       <c r="AT315" s="10"/>
       <c r="AU315" s="10"/>
       <c r="AV315" s="10"/>
-    </row>
-    <row r="316" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ315" s="67"/>
+      <c r="BA315" s="67"/>
+    </row>
+    <row r="316" spans="1:53" ht="13" customHeight="1">
       <c r="A316" s="40" t="s">
         <v>27</v>
       </c>
@@ -31070,8 +31773,10 @@
       <c r="AT316" s="16"/>
       <c r="AU316" s="16"/>
       <c r="AV316" s="16"/>
-    </row>
-    <row r="317" spans="1:48" s="49" customFormat="1" ht="13" customHeight="1">
+      <c r="AZ316" s="67"/>
+      <c r="BA316" s="67"/>
+    </row>
+    <row r="317" spans="1:53" s="49" customFormat="1" ht="13" customHeight="1">
       <c r="A317" s="47" t="s">
         <v>20</v>
       </c>
@@ -31144,8 +31849,10 @@
       <c r="AT317" s="48"/>
       <c r="AU317" s="48"/>
       <c r="AV317" s="48"/>
-    </row>
-    <row r="318" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ317" s="67"/>
+      <c r="BA317" s="67"/>
+    </row>
+    <row r="318" spans="1:53" ht="13" customHeight="1">
       <c r="A318" s="40" t="s">
         <v>14</v>
       </c>
@@ -31182,8 +31889,10 @@
       <c r="AT318" s="16"/>
       <c r="AU318" s="16"/>
       <c r="AV318" s="16"/>
-    </row>
-    <row r="319" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ318" s="67"/>
+      <c r="BA318" s="67"/>
+    </row>
+    <row r="319" spans="1:53" ht="13" customHeight="1">
       <c r="A319" s="40" t="s">
         <v>16</v>
       </c>
@@ -31224,8 +31933,10 @@
       <c r="AT319" s="16"/>
       <c r="AU319" s="16"/>
       <c r="AV319" s="16"/>
-    </row>
-    <row r="320" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ319" s="67"/>
+      <c r="BA319" s="67"/>
+    </row>
+    <row r="320" spans="1:53" ht="13" customHeight="1">
       <c r="A320" s="40" t="s">
         <v>20</v>
       </c>
@@ -31288,8 +31999,10 @@
       <c r="AT320" s="16"/>
       <c r="AU320" s="16"/>
       <c r="AV320" s="16"/>
-    </row>
-    <row r="321" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ320" s="67"/>
+      <c r="BA320" s="67"/>
+    </row>
+    <row r="321" spans="1:53" ht="13" customHeight="1">
       <c r="A321" s="40" t="s">
         <v>20</v>
       </c>
@@ -31352,8 +32065,10 @@
       <c r="AT321" s="16"/>
       <c r="AU321" s="16"/>
       <c r="AV321" s="16"/>
-    </row>
-    <row r="322" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ321" s="67"/>
+      <c r="BA321" s="67"/>
+    </row>
+    <row r="322" spans="1:53" ht="13" customHeight="1">
       <c r="A322" s="40" t="s">
         <v>20</v>
       </c>
@@ -31418,8 +32133,10 @@
       <c r="AT322" s="16"/>
       <c r="AU322" s="16"/>
       <c r="AV322" s="16"/>
-    </row>
-    <row r="323" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ322" s="67"/>
+      <c r="BA322" s="67"/>
+    </row>
+    <row r="323" spans="1:53" ht="13" customHeight="1">
       <c r="A323" s="40" t="s">
         <v>20</v>
       </c>
@@ -31484,8 +32201,10 @@
       <c r="AT323" s="16"/>
       <c r="AU323" s="16"/>
       <c r="AV323" s="16"/>
-    </row>
-    <row r="324" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ323" s="67"/>
+      <c r="BA323" s="67"/>
+    </row>
+    <row r="324" spans="1:53" ht="13" customHeight="1">
       <c r="A324" s="40" t="s">
         <v>45</v>
       </c>
@@ -31596,8 +32315,10 @@
       <c r="AT324" s="16"/>
       <c r="AU324" s="16"/>
       <c r="AV324" s="16"/>
-    </row>
-    <row r="325" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ324" s="67"/>
+      <c r="BA324" s="67"/>
+    </row>
+    <row r="325" spans="1:53" ht="13" customHeight="1">
       <c r="A325" s="40" t="s">
         <v>27</v>
       </c>
@@ -31650,8 +32371,10 @@
       <c r="AT325" s="16"/>
       <c r="AU325" s="16"/>
       <c r="AV325" s="16"/>
-    </row>
-    <row r="326" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ325" s="67"/>
+      <c r="BA325" s="67"/>
+    </row>
+    <row r="326" spans="1:53" ht="13" customHeight="1">
       <c r="A326" s="40" t="s">
         <v>20</v>
       </c>
@@ -31743,8 +32466,10 @@
       <c r="AT326" s="16"/>
       <c r="AU326" s="16"/>
       <c r="AV326" s="16"/>
-    </row>
-    <row r="327" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ326" s="67"/>
+      <c r="BA326" s="67"/>
+    </row>
+    <row r="327" spans="1:53" ht="13" customHeight="1">
       <c r="A327" s="40" t="s">
         <v>14</v>
       </c>
@@ -31784,8 +32509,10 @@
       <c r="AT327" s="16"/>
       <c r="AU327" s="16"/>
       <c r="AV327" s="16"/>
-    </row>
-    <row r="328" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ327" s="67"/>
+      <c r="BA327" s="67"/>
+    </row>
+    <row r="328" spans="1:53" ht="13" customHeight="1">
       <c r="A328" s="40" t="s">
         <v>28</v>
       </c>
@@ -31897,8 +32624,10 @@
       <c r="AT328" s="16"/>
       <c r="AU328" s="16"/>
       <c r="AV328" s="16"/>
-    </row>
-    <row r="329" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ328" s="67"/>
+      <c r="BA328" s="67"/>
+    </row>
+    <row r="329" spans="1:53" ht="13" customHeight="1">
       <c r="A329" s="40" t="s">
         <v>28</v>
       </c>
@@ -32010,8 +32739,10 @@
       <c r="AT329" s="16"/>
       <c r="AU329" s="16"/>
       <c r="AV329" s="16"/>
-    </row>
-    <row r="330" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ329" s="67"/>
+      <c r="BA329" s="67"/>
+    </row>
+    <row r="330" spans="1:53" ht="13" customHeight="1">
       <c r="A330" s="40" t="s">
         <v>28</v>
       </c>
@@ -32123,8 +32854,10 @@
       <c r="AT330" s="16"/>
       <c r="AU330" s="16"/>
       <c r="AV330" s="16"/>
-    </row>
-    <row r="331" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ330" s="67"/>
+      <c r="BA330" s="67"/>
+    </row>
+    <row r="331" spans="1:53" ht="13" customHeight="1">
       <c r="A331" s="40" t="s">
         <v>14</v>
       </c>
@@ -32164,8 +32897,10 @@
       <c r="AT331" s="16"/>
       <c r="AU331" s="16"/>
       <c r="AV331" s="16"/>
-    </row>
-    <row r="332" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ331" s="67"/>
+      <c r="BA331" s="67"/>
+    </row>
+    <row r="332" spans="1:53" ht="13" customHeight="1">
       <c r="A332" s="40" t="s">
         <v>16</v>
       </c>
@@ -32206,8 +32941,10 @@
       <c r="AT332" s="16"/>
       <c r="AU332" s="16"/>
       <c r="AV332" s="16"/>
-    </row>
-    <row r="333" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ332" s="67"/>
+      <c r="BA332" s="67"/>
+    </row>
+    <row r="333" spans="1:53" ht="13" customHeight="1">
       <c r="A333" s="40" t="s">
         <v>20</v>
       </c>
@@ -32269,8 +33006,10 @@
       <c r="AT333" s="16"/>
       <c r="AU333" s="16"/>
       <c r="AV333" s="16"/>
-    </row>
-    <row r="334" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ333" s="67"/>
+      <c r="BA333" s="67"/>
+    </row>
+    <row r="334" spans="1:53" ht="13" customHeight="1">
       <c r="A334" s="40" t="s">
         <v>20</v>
       </c>
@@ -32335,8 +33074,10 @@
       <c r="AT334" s="16"/>
       <c r="AU334" s="16"/>
       <c r="AV334" s="16"/>
-    </row>
-    <row r="335" spans="1:48" ht="13" customHeight="1">
+      <c r="AZ334" s="67"/>
+      <c r="BA334" s="67"/>
+    </row>
+    <row r="335" spans="1:53" ht="13" customHeight="1">
       <c r="A335" s="40" t="s">
         <v>20</v>
       </c>
@@ -32402,7 +33143,7 @@
       <c r="AU335" s="16"/>
       <c r="AV335" s="16"/>
     </row>
-    <row r="336" spans="1:48" ht="13" customHeight="1">
+    <row r="336" spans="1:53" ht="13" customHeight="1">
       <c r="A336" s="40" t="s">
         <v>347</v>
       </c>
